--- a/Houses Prices/Bad Features Prediction/NN_test_set_prediction_8222_bad_features_with_correlation_hp.xlsx
+++ b/Houses Prices/Bad Features Prediction/NN_test_set_prediction_8222_bad_features_with_correlation_hp.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuval\Desktop\Data Science\Deconstructing Neural Networks\Houses Prices\Bad Features Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B54996-49DB-45AD-B918-5F3F49B52E34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875550FE-6F48-4F0D-8F8F-EC51DEC77F3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="180" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NN_test_set_prediction_8222_bad" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NN_test_set_prediction_8222_bad!$A$1:$Q$106</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NN_test_set_prediction_8222_bad!$A$1:$R$106</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="46">
   <si>
     <t>['YrSold', 'MoSold']</t>
   </si>
@@ -168,6 +171,9 @@
   </si>
   <si>
     <t>Abs Sum Correlation</t>
+  </si>
+  <si>
+    <t>Min correlation</t>
   </si>
 </sst>
 </file>
@@ -319,7 +325,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -505,6 +511,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -681,7 +693,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -699,6 +711,7 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -755,6 +768,2412 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>NN_test_set_prediction_8222_bad!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average MSE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>NN_test_set_prediction_8222_bad!$Q$2:$Q$106</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="105"/>
+                <c:pt idx="0">
+                  <c:v>-0.49525146925701402</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.14572141267538699</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.49525146925701402</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.49525146925701402</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.49525146925701402</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.49525146925701402</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.35846432383224E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.14070378510938E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.49525146925701402</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.136840569893521</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.49525146925701402</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.136840569893521</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-4.62308559182249E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.49525146925701402</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.139781081720146</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.35846432383224E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.49525146925701402</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.14572141267538699</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-2.3438028460627602E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-5.9315817084104598E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-4.62308559182249E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.139781081720146</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.107354676823072</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.107354676823072</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.14572141267538699</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.49525146925701402</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.49525146925701402</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-6.9835749167101002E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.107354676823072</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-6.9835749167101002E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-4.1258194938761997E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.136840569893521</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-6.9835749167101002E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-2.3438028460627602E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.49525146925701402</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.139781081720146</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.14572141267538699</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-6.9835749167101002E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.140759480835012</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.49525146925701402</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.14572141267538699</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.139781081720146</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-6.9835749167101002E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.140759480835012</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.139781081720146</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-4.62308559182249E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.136840569893521</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.49525146925701402</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.139781081720146</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.140759480835012</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-4.1258194938761997E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-4.62308559182249E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-0.107354676823072</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-0.139781081720146</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-0.136840569893521</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-6.9835749167101002E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-0.140759480835012</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-0.14572141267538699</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-4.62308559182249E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-0.136840569893521</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-1.35846432383224E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-6.9835749167101002E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-6.9835749167101002E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-0.14572141267538699</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-4.62308559182249E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-0.136840569893521</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-4.62308559182249E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-5.9315817084104598E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-0.139781081720146</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-0.14572141267538699</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-2.14070378510938E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-2.14070378510938E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-5.9315817084104598E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-0.14572141267538699</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-0.136840569893521</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-4.1258194938761997E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-0.14572141267538699</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-6.9835749167101002E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-2.14070378510938E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-0.139781081720146</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-0.107354676823072</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-0.136840569893521</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-0.14572141267538699</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-0.140759480835012</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-0.49525146925701402</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-5.9315817084104598E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-5.9315817084104598E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-4.62308559182249E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-5.9315817084104598E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-0.140759480835012</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-5.9315817084104598E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-2.3438028460627602E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-0.14572141267538699</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-0.140759480835012</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-0.140759480835012</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-5.9315817084104598E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-2.3438028460627602E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-0.107354676823072</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-0.140759480835012</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-0.139781081720146</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-0.140759480835012</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-0.140759480835012</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-0.136840569893521</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-0.140759480835012</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-6.9835749167101002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>NN_test_set_prediction_8222_bad!$R$2:$R$106</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="105"/>
+                <c:pt idx="0">
+                  <c:v>0.35713901519775337</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36712692379951439</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.36919679045677156</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.37229821681976255</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.37858359813690157</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.38388608098030058</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.38435562252998301</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.38515971899032519</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.3900501728057858</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.39164478182792617</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.39263705015182443</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.39394328594207723</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.39682409167289678</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.4005951583385462</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.40115348100662179</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.40652583241462653</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.40807228684425301</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.40974389314651444</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.40980752706527657</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.41035903096198983</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.41052899360656692</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.41079177856445276</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.41138362288475017</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.4122536897659298</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.41531412005424456</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.41565491557121226</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.41581714153289739</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.41625002622604318</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.4169134616851804</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.41696981787681564</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.41720039248466445</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.41734394431114163</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.41756497025489736</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.41775328516960081</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.41783926486968959</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.41800605654716466</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.41906496286392159</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.42037651538848797</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.42139491438865628</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.42145465016364997</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.42159061431884703</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.42183616161346371</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.42294487953185983</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.42302011847495979</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.423721951246261</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.42423598766326875</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.4248495578765864</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.42521966695785485</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.42582878470420782</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.42607452273368801</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.42696208357810939</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.42750180959701478</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.42793172597885099</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.42858333587646447</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.42937073111534058</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.43108751177787719</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.43124774098396257</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.43191881179809516</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.43264909386634781</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.43326212167739825</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.43336118459701478</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.43346283435821481</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.43350896835327096</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.43479230999946539</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.43522381186485221</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.43575823903083782</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.43589244484901385</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.43639327883720364</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.43693504929542482</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.43736463189125024</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.43907134532928421</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.43944891095161404</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.44032436609268155</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.44130857586860622</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.4413146555423732</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.4416986584663386</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.44181277751922565</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.44313018321990916</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.44329892396926834</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.44457926750183063</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.44466363191604563</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.44503508806228603</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.44709378480911199</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.44731934666633533</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.44783666729927019</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.45070663094520513</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.45131358504295305</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.45416235923767018</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.45455771684646534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.45573574900627084</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.45696659088134739</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.45734180808067276</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.45743654966354336</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.45856043100357019</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.45880672931671096</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.46472534537315341</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.46828265786170897</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.46836296319961496</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.47034347653388914</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.47049891948699879</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.47108370065689054</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.47175139188766418</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.47259858250617937</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.48278148770332285</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.55650966763496368</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0100-4026-A409-E80DF2AD75A5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1721705664"/>
+        <c:axId val="1559424768"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1721705664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Min Correlation</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1559424768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1559424768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average MSE</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1721705664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-IL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="242">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1805940</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>110492</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{099F4AE0-B6F4-4568-B5D7-ED53D742CE70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="NN_test_set_prediction_results1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="R1" t="str">
+            <v>Average MSE</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="N2">
+            <v>-0.25067011704449099</v>
+          </cell>
+          <cell r="R2">
+            <v>2.253579596336926E-2</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="N3">
+            <v>-0.25067011704449099</v>
+          </cell>
+          <cell r="R3">
+            <v>2.5729825302958441E-2</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="N4">
+            <v>-0.25067011704449099</v>
+          </cell>
+          <cell r="R4">
+            <v>2.62088254988193E-2</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="N5">
+            <v>-0.25067011704449099</v>
+          </cell>
+          <cell r="R5">
+            <v>2.6698676586151084E-2</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="N6">
+            <v>-0.25067011704449099</v>
+          </cell>
+          <cell r="R6">
+            <v>2.6869755163788762E-2</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="N7">
+            <v>-0.25067011704449099</v>
+          </cell>
+          <cell r="R7">
+            <v>2.7280225843191102E-2</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="N8">
+            <v>-0.25067011704449099</v>
+          </cell>
+          <cell r="R8">
+            <v>2.7850072726607278E-2</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="N9">
+            <v>-0.25067011704449099</v>
+          </cell>
+          <cell r="R9">
+            <v>2.8769399911165179E-2</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="N10">
+            <v>-0.25067011704449099</v>
+          </cell>
+          <cell r="R10">
+            <v>2.9882998257875402E-2</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="N11">
+            <v>-0.25067011704449099</v>
+          </cell>
+          <cell r="R11">
+            <v>2.9963732287287659E-2</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="N12">
+            <v>-0.25067011704449099</v>
+          </cell>
+          <cell r="R12">
+            <v>2.9985729992389642E-2</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="N13">
+            <v>-0.25067011704449099</v>
+          </cell>
+          <cell r="R13">
+            <v>3.0371635690331439E-2</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="N14">
+            <v>-0.25067011704449099</v>
+          </cell>
+          <cell r="R14">
+            <v>3.1010482415556855E-2</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="N15">
+            <v>-0.25067011704449099</v>
+          </cell>
+          <cell r="R15">
+            <v>3.1548798322677596E-2</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="N16">
+            <v>-0.25067011704449099</v>
+          </cell>
+          <cell r="R16">
+            <v>3.290591886639592E-2</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="N17">
+            <v>-0.14702348778778401</v>
+          </cell>
+          <cell r="R17">
+            <v>2.1764379575848539E-2</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="N18">
+            <v>-0.14702348778778401</v>
+          </cell>
+          <cell r="R18">
+            <v>2.586399854719636E-2</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="N19">
+            <v>-0.14702348778778401</v>
+          </cell>
+          <cell r="R19">
+            <v>2.7224805906414941E-2</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="N20">
+            <v>-0.14702348778778401</v>
+          </cell>
+          <cell r="R20">
+            <v>2.8628606107085904E-2</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="N21">
+            <v>-0.14702348778778401</v>
+          </cell>
+          <cell r="R21">
+            <v>2.9478422172367541E-2</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="N22">
+            <v>-0.14702348778778401</v>
+          </cell>
+          <cell r="R22">
+            <v>3.4216134712099978E-2</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="N23">
+            <v>-0.14702348778778401</v>
+          </cell>
+          <cell r="R23">
+            <v>3.4238537415862039E-2</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="N24">
+            <v>-0.14702348778778401</v>
+          </cell>
+          <cell r="R24">
+            <v>3.6418420694768382E-2</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="N25">
+            <v>-0.14702348778778401</v>
+          </cell>
+          <cell r="R25">
+            <v>3.8065944753587197E-2</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="N26">
+            <v>-0.14702348778778401</v>
+          </cell>
+          <cell r="R26">
+            <v>4.1112439006566956E-2</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="N27">
+            <v>-0.14702348778778401</v>
+          </cell>
+          <cell r="R27">
+            <v>4.2829346291720839E-2</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="N28">
+            <v>-0.14702348778778401</v>
+          </cell>
+          <cell r="R28">
+            <v>4.586328415572638E-2</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="N29">
+            <v>-0.14702348778778401</v>
+          </cell>
+          <cell r="R29">
+            <v>4.5892257787287158E-2</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="N30">
+            <v>-0.14702348778778401</v>
+          </cell>
+          <cell r="R30">
+            <v>4.6261460028588733E-2</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="N31">
+            <v>-0.14702348778778401</v>
+          </cell>
+          <cell r="R31">
+            <v>5.698888763785346E-2</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="N32">
+            <v>-3.0824181979061801E-3</v>
+          </cell>
+          <cell r="R32">
+            <v>3.323037619888778E-2</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="N33">
+            <v>-3.0824181979061801E-3</v>
+          </cell>
+          <cell r="R33">
+            <v>3.3770173043012566E-2</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="N34">
+            <v>-3.0824181979061801E-3</v>
+          </cell>
+          <cell r="R34">
+            <v>3.4015383094549115E-2</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="N35">
+            <v>-3.0824181979061801E-3</v>
+          </cell>
+          <cell r="R35">
+            <v>3.6741258688271002E-2</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="N36">
+            <v>-3.0824181979061801E-3</v>
+          </cell>
+          <cell r="R36">
+            <v>3.7818743467330884E-2</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="N37">
+            <v>-3.0824181979061801E-3</v>
+          </cell>
+          <cell r="R37">
+            <v>3.8489783763885455E-2</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="N38">
+            <v>-3.0824181979061801E-3</v>
+          </cell>
+          <cell r="R38">
+            <v>4.0735995545983263E-2</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="N39">
+            <v>-3.0824181979061801E-3</v>
+          </cell>
+          <cell r="R39">
+            <v>4.1427254229783946E-2</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="N40">
+            <v>-3.0824181979061801E-3</v>
+          </cell>
+          <cell r="R40">
+            <v>4.3812881402671158E-2</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="N41">
+            <v>-3.0824181979061801E-3</v>
+          </cell>
+          <cell r="R41">
+            <v>4.5264502078294702E-2</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="N42">
+            <v>-3.0824181979061801E-3</v>
+          </cell>
+          <cell r="R42">
+            <v>4.7810763344168623E-2</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="N43">
+            <v>-3.0824181979061801E-3</v>
+          </cell>
+          <cell r="R43">
+            <v>4.8300823152065235E-2</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="N44">
+            <v>-3.0824181979061801E-3</v>
+          </cell>
+          <cell r="R44">
+            <v>5.1852723598480178E-2</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="N45">
+            <v>-3.0824181979061801E-3</v>
+          </cell>
+          <cell r="R45">
+            <v>5.2371499590575646E-2</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="N46">
+            <v>-3.0824181979061801E-3</v>
+          </cell>
+          <cell r="R46">
+            <v>5.4668518319725981E-2</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="N47">
+            <v>3.8244248103491703E-2</v>
+          </cell>
+          <cell r="R47">
+            <v>2.8243160679936364E-2</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="N48">
+            <v>3.8244248103491703E-2</v>
+          </cell>
+          <cell r="R48">
+            <v>2.8521997794508903E-2</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="N49">
+            <v>3.8244248103491703E-2</v>
+          </cell>
+          <cell r="R49">
+            <v>2.9847828224301282E-2</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="N50">
+            <v>3.8244248103491703E-2</v>
+          </cell>
+          <cell r="R50">
+            <v>3.1474897280335382E-2</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="N51">
+            <v>3.8244248103491703E-2</v>
+          </cell>
+          <cell r="R51">
+            <v>3.3685918077826463E-2</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="N52">
+            <v>3.8244248103491703E-2</v>
+          </cell>
+          <cell r="R52">
+            <v>3.6083592087030235E-2</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="N53">
+            <v>3.8244248103491703E-2</v>
+          </cell>
+          <cell r="R53">
+            <v>3.6182908505201283E-2</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="N54">
+            <v>3.8244248103491703E-2</v>
+          </cell>
+          <cell r="R54">
+            <v>4.2932242199778502E-2</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="N55">
+            <v>3.8244248103491703E-2</v>
+          </cell>
+          <cell r="R55">
+            <v>4.4355207741260505E-2</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="N56">
+            <v>3.8244248103491703E-2</v>
+          </cell>
+          <cell r="R56">
+            <v>5.1192409962415641E-2</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="N57">
+            <v>3.8244248103491703E-2</v>
+          </cell>
+          <cell r="R57">
+            <v>6.3248873531818239E-2</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="N58">
+            <v>3.8244248103491703E-2</v>
+          </cell>
+          <cell r="R58">
+            <v>7.4237615898251369E-2</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="N59">
+            <v>4.3752962356644602E-2</v>
+          </cell>
+          <cell r="R59">
+            <v>3.279444320499892E-2</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="N60">
+            <v>4.3752962356644602E-2</v>
+          </cell>
+          <cell r="R60">
+            <v>3.4029765143990476E-2</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="N61">
+            <v>4.3752962356644602E-2</v>
+          </cell>
+          <cell r="R61">
+            <v>3.4369612634181923E-2</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="N62">
+            <v>4.3752962356644602E-2</v>
+          </cell>
+          <cell r="R62">
+            <v>3.4902984373271398E-2</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="N63">
+            <v>4.3752962356644602E-2</v>
+          </cell>
+          <cell r="R63">
+            <v>3.5359289493411737E-2</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="N64">
+            <v>4.3752962356644602E-2</v>
+          </cell>
+          <cell r="R64">
+            <v>3.9225618869066198E-2</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="N65">
+            <v>4.3752962356644602E-2</v>
+          </cell>
+          <cell r="R65">
+            <v>4.366611016541716E-2</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="N66">
+            <v>4.3752962356644602E-2</v>
+          </cell>
+          <cell r="R66">
+            <v>4.6928751707076985E-2</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="N67">
+            <v>4.3752962356644602E-2</v>
+          </cell>
+          <cell r="R67">
+            <v>8.1526146873831445E-2</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="N68">
+            <v>8.7446074907201604E-2</v>
+          </cell>
+          <cell r="R68">
+            <v>3.1015813685953582E-2</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="N69">
+            <v>8.7446074907201604E-2</v>
+          </cell>
+          <cell r="R69">
+            <v>3.12133910655975E-2</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="N70">
+            <v>8.7446074907201604E-2</v>
+          </cell>
+          <cell r="R70">
+            <v>3.2105709850788061E-2</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="N71">
+            <v>8.7446074907201604E-2</v>
+          </cell>
+          <cell r="R71">
+            <v>3.5806296467780996E-2</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="N72">
+            <v>8.7446074907201604E-2</v>
+          </cell>
+          <cell r="R72">
+            <v>3.8771420791745156E-2</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="N73">
+            <v>8.7446074907201604E-2</v>
+          </cell>
+          <cell r="R73">
+            <v>3.9339323684573095E-2</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="N74">
+            <v>8.7446074907201604E-2</v>
+          </cell>
+          <cell r="R74">
+            <v>4.8585761874914118E-2</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="N75">
+            <v>8.7446074907201604E-2</v>
+          </cell>
+          <cell r="R75">
+            <v>5.5154372856020796E-2</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="N76">
+            <v>8.7446074907201604E-2</v>
+          </cell>
+          <cell r="R76">
+            <v>5.5620646595954781E-2</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="N77">
+            <v>9.3180979554665297E-2</v>
+          </cell>
+          <cell r="R77">
+            <v>2.8973621711134861E-2</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="N78">
+            <v>9.3180979554665297E-2</v>
+          </cell>
+          <cell r="R78">
+            <v>3.0583212122321062E-2</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="N79">
+            <v>9.3180979554665297E-2</v>
+          </cell>
+          <cell r="R79">
+            <v>3.178442940115922E-2</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="N80">
+            <v>9.3180979554665297E-2</v>
+          </cell>
+          <cell r="R80">
+            <v>3.9417579591274197E-2</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="N81">
+            <v>9.3180979554665297E-2</v>
+          </cell>
+          <cell r="R81">
+            <v>4.0320910587906725E-2</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="N82">
+            <v>9.3180979554665297E-2</v>
+          </cell>
+          <cell r="R82">
+            <v>4.2126142755150642E-2</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="N83">
+            <v>9.3180979554665297E-2</v>
+          </cell>
+          <cell r="R83">
+            <v>4.2626983389258341E-2</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="N84">
+            <v>9.3180979554665297E-2</v>
+          </cell>
+          <cell r="R84">
+            <v>4.9241443216800622E-2</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="N85">
+            <v>9.3180979554665297E-2</v>
+          </cell>
+          <cell r="R85">
+            <v>6.6089189037680421E-2</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="N86">
+            <v>0.10910851245905299</v>
+          </cell>
+          <cell r="R86">
+            <v>2.6051706582307783E-2</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="N87">
+            <v>0.10910851245905299</v>
+          </cell>
+          <cell r="R87">
+            <v>3.2123035416007001E-2</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="N88">
+            <v>0.10910851245905299</v>
+          </cell>
+          <cell r="R88">
+            <v>3.5628567084670021E-2</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="N89">
+            <v>0.10910851245905299</v>
+          </cell>
+          <cell r="R89">
+            <v>4.0394678652286478E-2</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="N90">
+            <v>0.10910851245905299</v>
+          </cell>
+          <cell r="R90">
+            <v>4.913840238749978E-2</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="N91">
+            <v>0.10910851245905299</v>
+          </cell>
+          <cell r="R91">
+            <v>5.4670435696840138E-2</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="N92">
+            <v>0.115973471956945</v>
+          </cell>
+          <cell r="R92">
+            <v>3.0656662300229016E-2</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="N93">
+            <v>0.115973471956945</v>
+          </cell>
+          <cell r="R93">
+            <v>3.6410860568284943E-2</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="N94">
+            <v>0.115973471956945</v>
+          </cell>
+          <cell r="R94">
+            <v>6.5113776862621126E-2</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="N95">
+            <v>0.11710808008718999</v>
+          </cell>
+          <cell r="R95">
+            <v>2.5746355086564983E-2</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="N96">
+            <v>0.11710808008718999</v>
+          </cell>
+          <cell r="R96">
+            <v>2.9429251208901358E-2</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="N97">
+            <v>0.11710808008718999</v>
+          </cell>
+          <cell r="R97">
+            <v>3.0665996700525239E-2</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="N98">
+            <v>0.11710808008718999</v>
+          </cell>
+          <cell r="R98">
+            <v>3.4967337355017634E-2</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="N99">
+            <v>0.11710808008718999</v>
+          </cell>
+          <cell r="R99">
+            <v>3.8995066776871659E-2</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="N100">
+            <v>0.11710808008718999</v>
+          </cell>
+          <cell r="R100">
+            <v>4.3425965398550002E-2</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="N101">
+            <v>0.11833176042660901</v>
+          </cell>
+          <cell r="R101">
+            <v>2.673669317364688E-2</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="N102">
+            <v>0.11833176042660901</v>
+          </cell>
+          <cell r="R102">
+            <v>3.1273457452654821E-2</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="N103">
+            <v>0.11833176042660901</v>
+          </cell>
+          <cell r="R103">
+            <v>3.6690904840826918E-2</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="N104">
+            <v>0.11833176042660901</v>
+          </cell>
+          <cell r="R104">
+            <v>3.7692924208939022E-2</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="N105">
+            <v>0.11833176042660901</v>
+          </cell>
+          <cell r="R105">
+            <v>4.4421142846345837E-2</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="N106">
+            <v>0.11833176042660901</v>
+          </cell>
+          <cell r="R106">
+            <v>4.51604081988334E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1054,11 +3473,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q106"/>
+  <dimension ref="A1:V106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N2" sqref="N2"/>
+      <selection pane="bottomLeft" activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1067,10 +3486,13 @@
     <col min="2" max="3" width="29.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
     <col min="5" max="13" width="8.88671875" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="17" width="14.77734375" customWidth="1"/>
+    <col min="14" max="14" width="14.77734375" customWidth="1"/>
+    <col min="15" max="16" width="14.77734375" hidden="1" customWidth="1"/>
+    <col min="17" max="18" width="14.77734375" customWidth="1"/>
+    <col min="21" max="22" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>28</v>
       </c>
@@ -1120,10 +3542,19 @@
         <v>42</v>
       </c>
       <c r="Q1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="R1" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="U1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1164,23 +3595,35 @@
         <v>0.33281379938125599</v>
       </c>
       <c r="N2" s="4">
-        <f t="shared" ref="N2:N33" si="0">SUM(E2:H2)</f>
+        <f>SUM(E2:H2)</f>
         <v>-0.76777390355799646</v>
       </c>
       <c r="O2" s="4">
-        <f t="shared" ref="O2:O33" si="1">ABS(E2)+ABS(F2)+ABS(G2)+ABS(H2)</f>
+        <f>ABS(E2)+ABS(F2)+ABS(G2)+ABS(H2)</f>
         <v>0.79373402374709756</v>
       </c>
       <c r="P2" s="4">
-        <f t="shared" ref="P2:P33" si="2">MIN(I2:M2)</f>
+        <f>MIN(I2:M2)</f>
         <v>0.32448846101760798</v>
       </c>
       <c r="Q2" s="4">
-        <f t="shared" ref="Q2:Q33" si="3">AVERAGE(I2:M2)</f>
+        <f>MIN(E2:H2)</f>
+        <v>-0.49525146925701402</v>
+      </c>
+      <c r="R2" s="4">
+        <f>AVERAGE(I2:M2)</f>
         <v>0.35713901519775337</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="U2" s="7">
+        <f>CORREL(Q2:Q106,R2:R106)</f>
+        <v>0.39302223511647927</v>
+      </c>
+      <c r="V2" s="7">
+        <f>CORREL(N2:N106,R2:R106)</f>
+        <v>0.35297499103539404</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1221,23 +3664,27 @@
         <v>0.39763918519019997</v>
       </c>
       <c r="N3" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(E3:H3)</f>
         <v>-0.52969774111212597</v>
       </c>
       <c r="O3" s="4">
-        <f t="shared" si="1"/>
+        <f>ABS(E3)+ABS(F3)+ABS(G3)+ABS(H3)</f>
         <v>0.52969774111212597</v>
       </c>
       <c r="P3" s="4">
-        <f t="shared" si="2"/>
+        <f>MIN(I3:M3)</f>
         <v>0.34588780999183599</v>
       </c>
       <c r="Q3" s="4">
-        <f t="shared" si="3"/>
+        <f>MIN(E3:H3)</f>
+        <v>-0.14572141267538699</v>
+      </c>
+      <c r="R3" s="4">
+        <f>AVERAGE(I3:M3)</f>
         <v>0.36712692379951439</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
@@ -1278,23 +3725,27 @@
         <v>0.37716922163963301</v>
       </c>
       <c r="N4" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(E4:H4)</f>
         <v>-0.51011745969931777</v>
       </c>
       <c r="O4" s="4">
-        <f t="shared" si="1"/>
+        <f>ABS(E4)+ABS(F4)+ABS(G4)+ABS(H4)</f>
         <v>0.53607757988841898</v>
       </c>
       <c r="P4" s="4">
-        <f t="shared" si="2"/>
+        <f>MIN(I4:M4)</f>
         <v>0.34179335832595797</v>
       </c>
       <c r="Q4" s="4">
-        <f t="shared" si="3"/>
+        <f>MIN(E4:H4)</f>
+        <v>-0.49525146925701402</v>
+      </c>
+      <c r="R4" s="4">
+        <f>AVERAGE(I4:M4)</f>
         <v>0.36919679045677156</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -1335,23 +3786,27 @@
         <v>0.369375109672546</v>
       </c>
       <c r="N5" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(E5:H5)</f>
         <v>-0.47353476380257331</v>
       </c>
       <c r="O5" s="4">
-        <f t="shared" si="1"/>
+        <f>ABS(E5)+ABS(F5)+ABS(G5)+ABS(H5)</f>
         <v>0.56384423163270991</v>
       </c>
       <c r="P5" s="4">
-        <f t="shared" si="2"/>
+        <f>MIN(I5:M5)</f>
         <v>0.34025928378105103</v>
       </c>
       <c r="Q5" s="4">
-        <f t="shared" si="3"/>
+        <f>MIN(E5:H5)</f>
+        <v>-0.49525146925701402</v>
+      </c>
+      <c r="R5" s="4">
+        <f>AVERAGE(I5:M5)</f>
         <v>0.37229821681976255</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
@@ -1392,23 +3847,27 @@
         <v>0.389185011386871</v>
       </c>
       <c r="N6" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(E6:H6)</f>
         <v>-0.5893761909522458</v>
       </c>
       <c r="O6" s="4">
-        <f t="shared" si="1"/>
+        <f>ABS(E6)+ABS(F6)+ABS(G6)+ABS(H6)</f>
         <v>0.59178616739742129</v>
       </c>
       <c r="P6" s="4">
-        <f t="shared" si="2"/>
+        <f>MIN(I6:M6)</f>
         <v>0.344705700874328</v>
       </c>
       <c r="Q6" s="4">
-        <f t="shared" si="3"/>
+        <f>MIN(E6:H6)</f>
+        <v>-0.49525146925701402</v>
+      </c>
+      <c r="R6" s="4">
+        <f>AVERAGE(I6:M6)</f>
         <v>0.37858359813690157</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -1449,23 +3908,27 @@
         <v>0.333233892917633</v>
       </c>
       <c r="N7" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(E7:H7)</f>
         <v>-0.34519645865153981</v>
       </c>
       <c r="O7" s="4">
-        <f t="shared" si="1"/>
+        <f>ABS(E7)+ABS(F7)+ABS(G7)+ABS(H7)</f>
         <v>0.67247576633913297</v>
       </c>
       <c r="P7" s="4">
-        <f t="shared" si="2"/>
+        <f>MIN(I7:M7)</f>
         <v>0.333233892917633</v>
       </c>
       <c r="Q7" s="4">
-        <f t="shared" si="3"/>
+        <f>MIN(E7:H7)</f>
+        <v>-0.49525146925701402</v>
+      </c>
+      <c r="R7" s="4">
+        <f>AVERAGE(I7:M7)</f>
         <v>0.38388608098030058</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -1506,23 +3969,27 @@
         <v>0.36205160617828303</v>
       </c>
       <c r="N8" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(E8:H8)</f>
         <v>0.4111115501466992</v>
       </c>
       <c r="O8" s="4">
-        <f t="shared" si="1"/>
+        <f>ABS(E8)+ABS(F8)+ABS(G8)+ABS(H8)</f>
         <v>0.43828083662334394</v>
       </c>
       <c r="P8" s="4">
-        <f t="shared" si="2"/>
+        <f>MIN(I8:M8)</f>
         <v>0.36137875914573597</v>
       </c>
       <c r="Q8" s="4">
-        <f t="shared" si="3"/>
+        <f>MIN(E8:H8)</f>
+        <v>-1.35846432383224E-2</v>
+      </c>
+      <c r="R8" s="4">
+        <f>AVERAGE(I8:M8)</f>
         <v>0.38435562252998301</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
@@ -1563,23 +4030,27 @@
         <v>0.35402256250381398</v>
       </c>
       <c r="N9" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(E9:H9)</f>
         <v>-2.6772285968793334E-2</v>
       </c>
       <c r="O9" s="4">
-        <f t="shared" si="1"/>
+        <f>ABS(E9)+ABS(F9)+ABS(G9)+ABS(H9)</f>
         <v>5.2732406157894526E-2</v>
       </c>
       <c r="P9" s="4">
-        <f t="shared" si="2"/>
+        <f>MIN(I9:M9)</f>
         <v>0.35045900940894997</v>
       </c>
       <c r="Q9" s="4">
-        <f t="shared" si="3"/>
+        <f>MIN(E9:H9)</f>
+        <v>-2.14070378510938E-2</v>
+      </c>
+      <c r="R9" s="4">
+        <f>AVERAGE(I9:M9)</f>
         <v>0.38515971899032519</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
@@ -1620,23 +4091,27 @@
         <v>0.35725623369216902</v>
       </c>
       <c r="N10" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(E10:H10)</f>
         <v>-0.52228483370336798</v>
       </c>
       <c r="O10" s="4">
-        <f t="shared" si="1"/>
+        <f>ABS(E10)+ABS(F10)+ABS(G10)+ABS(H10)</f>
         <v>0.61537255357593301</v>
       </c>
       <c r="P10" s="4">
-        <f t="shared" si="2"/>
+        <f>MIN(I10:M10)</f>
         <v>0.34657514095306302</v>
       </c>
       <c r="Q10" s="4">
-        <f t="shared" si="3"/>
+        <f>MIN(E10:H10)</f>
+        <v>-0.49525146925701402</v>
+      </c>
+      <c r="R10" s="4">
+        <f>AVERAGE(I10:M10)</f>
         <v>0.3900501728057858</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
@@ -1677,23 +4152,27 @@
         <v>0.39546501636505099</v>
       </c>
       <c r="N11" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(E11:H11)</f>
         <v>-0.17439386642287141</v>
       </c>
       <c r="O11" s="4">
-        <f t="shared" si="1"/>
+        <f>ABS(E11)+ABS(F11)+ABS(G11)+ABS(H11)</f>
         <v>0.26748158629543639</v>
       </c>
       <c r="P11" s="4">
-        <f t="shared" si="2"/>
+        <f>MIN(I11:M11)</f>
         <v>0.32721906900405801</v>
       </c>
       <c r="Q11" s="4">
-        <f t="shared" si="3"/>
+        <f>MIN(E11:H11)</f>
+        <v>-0.136840569893521</v>
+      </c>
+      <c r="R11" s="4">
+        <f>AVERAGE(I11:M11)</f>
         <v>0.39164478182792617</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -1734,23 +4213,27 @@
         <v>0.33900547027587802</v>
       </c>
       <c r="N12" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(E12:H12)</f>
         <v>-0.55048627560315055</v>
       </c>
       <c r="O12" s="4">
-        <f t="shared" si="1"/>
+        <f>ABS(E12)+ABS(F12)+ABS(G12)+ABS(H12)</f>
         <v>0.55048627560315055</v>
       </c>
       <c r="P12" s="4">
-        <f t="shared" si="2"/>
+        <f>MIN(I12:M12)</f>
         <v>0.33900547027587802</v>
       </c>
       <c r="Q12" s="4">
-        <f t="shared" si="3"/>
+        <f>MIN(E12:H12)</f>
+        <v>-0.49525146925701402</v>
+      </c>
+      <c r="R12" s="4">
+        <f>AVERAGE(I12:M12)</f>
         <v>0.39263705015182443</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
@@ -1791,23 +4274,27 @@
         <v>0.37918046116828902</v>
       </c>
       <c r="N13" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(E13:H13)</f>
         <v>0.10239938289724569</v>
       </c>
       <c r="O13" s="4">
-        <f t="shared" si="1"/>
+        <f>ABS(E13)+ABS(F13)+ABS(G13)+ABS(H13)</f>
         <v>0.41889459838647525</v>
       </c>
       <c r="P13" s="4">
-        <f t="shared" si="2"/>
+        <f>MIN(I13:M13)</f>
         <v>0.35663655400276101</v>
       </c>
       <c r="Q13" s="4">
-        <f t="shared" si="3"/>
+        <f>MIN(E13:H13)</f>
+        <v>-0.136840569893521</v>
+      </c>
+      <c r="R13" s="4">
+        <f>AVERAGE(I13:M13)</f>
         <v>0.39394328594207723</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
@@ -1848,23 +4335,27 @@
         <v>0.39514955878257702</v>
       </c>
       <c r="N14" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(E14:H14)</f>
         <v>1.8616214056006705E-2</v>
       </c>
       <c r="O14" s="4">
-        <f t="shared" si="1"/>
+        <f>ABS(E14)+ABS(F14)+ABS(G14)+ABS(H14)</f>
         <v>0.22076360224662528</v>
       </c>
       <c r="P14" s="4">
-        <f t="shared" si="2"/>
+        <f>MIN(I14:M14)</f>
         <v>0.361143767833709</v>
       </c>
       <c r="Q14" s="4">
-        <f t="shared" si="3"/>
+        <f>MIN(E14:H14)</f>
+        <v>-4.62308559182249E-2</v>
+      </c>
+      <c r="R14" s="4">
+        <f>AVERAGE(I14:M14)</f>
         <v>0.39682409167289678</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
@@ -1905,23 +4396,27 @@
         <v>0.38566219806671098</v>
       </c>
       <c r="N15" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(E15:H15)</f>
         <v>-0.40047943755673154</v>
       </c>
       <c r="O15" s="4">
-        <f t="shared" si="1"/>
+        <f>ABS(E15)+ABS(F15)+ABS(G15)+ABS(H15)</f>
         <v>0.6398592538593636</v>
       </c>
       <c r="P15" s="4">
-        <f t="shared" si="2"/>
+        <f>MIN(I15:M15)</f>
         <v>0.33644038438796903</v>
       </c>
       <c r="Q15" s="4">
-        <f t="shared" si="3"/>
+        <f>MIN(E15:H15)</f>
+        <v>-0.49525146925701402</v>
+      </c>
+      <c r="R15" s="4">
+        <f>AVERAGE(I15:M15)</f>
         <v>0.4005951583385462</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>25</v>
       </c>
@@ -1962,23 +4457,27 @@
         <v>0.40673345327377303</v>
       </c>
       <c r="N16" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(E16:H16)</f>
         <v>-0.18072627264085039</v>
       </c>
       <c r="O16" s="4">
-        <f t="shared" si="1"/>
+        <f>ABS(E16)+ABS(F16)+ABS(G16)+ABS(H16)</f>
         <v>0.27381399251341543</v>
       </c>
       <c r="P16" s="4">
-        <f t="shared" si="2"/>
+        <f>MIN(I16:M16)</f>
         <v>0.35197892785072299</v>
       </c>
       <c r="Q16" s="4">
-        <f t="shared" si="3"/>
+        <f>MIN(E16:H16)</f>
+        <v>-0.139781081720146</v>
+      </c>
+      <c r="R16" s="4">
+        <f>AVERAGE(I16:M16)</f>
         <v>0.40115348100662179</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>27</v>
       </c>
@@ -2019,23 +4518,27 @@
         <v>0.36628293991088801</v>
       </c>
       <c r="N17" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(E17:H17)</f>
         <v>1.113597930004517E-2</v>
       </c>
       <c r="O17" s="4">
-        <f t="shared" si="1"/>
+        <f>ABS(E17)+ABS(F17)+ABS(G17)+ABS(H17)</f>
         <v>4.3541985676880834E-2</v>
       </c>
       <c r="P17" s="4">
-        <f t="shared" si="2"/>
+        <f>MIN(I17:M17)</f>
         <v>0.36628293991088801</v>
       </c>
       <c r="Q17" s="4">
-        <f t="shared" si="3"/>
+        <f>MIN(E17:H17)</f>
+        <v>-1.35846432383224E-2</v>
+      </c>
+      <c r="R17" s="4">
+        <f>AVERAGE(I17:M17)</f>
         <v>0.40652583241462653</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>24</v>
       </c>
@@ -2076,23 +4579,27 @@
         <v>0.43693694472312899</v>
       </c>
       <c r="N18" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(E18:H18)</f>
         <v>-0.6745572824108147</v>
       </c>
       <c r="O18" s="4">
-        <f t="shared" si="1"/>
+        <f>ABS(E18)+ABS(F18)+ABS(G18)+ABS(H18)</f>
         <v>0.6745572824108147</v>
       </c>
       <c r="P18" s="4">
-        <f t="shared" si="2"/>
+        <f>MIN(I18:M18)</f>
         <v>0.36088317632675099</v>
       </c>
       <c r="Q18" s="4">
-        <f t="shared" si="3"/>
+        <f>MIN(E18:H18)</f>
+        <v>-0.49525146925701402</v>
+      </c>
+      <c r="R18" s="4">
+        <f>AVERAGE(I18:M18)</f>
         <v>0.40807228684425301</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>0</v>
       </c>
@@ -2133,23 +4640,27 @@
         <v>0.42066064476966802</v>
       </c>
       <c r="N19" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(E19:H19)</f>
         <v>-0.21800865700433492</v>
       </c>
       <c r="O19" s="4">
-        <f t="shared" si="1"/>
+        <f>ABS(E19)+ABS(F19)+ABS(G19)+ABS(H19)</f>
         <v>0.21800865700433492</v>
       </c>
       <c r="P19" s="4">
-        <f t="shared" si="2"/>
+        <f>MIN(I19:M19)</f>
         <v>0.39985486865043601</v>
       </c>
       <c r="Q19" s="4">
-        <f t="shared" si="3"/>
+        <f>MIN(E19:H19)</f>
+        <v>-0.14572141267538699</v>
+      </c>
+      <c r="R19" s="4">
+        <f>AVERAGE(I19:M19)</f>
         <v>0.40974389314651444</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>16</v>
       </c>
@@ -2190,23 +4701,27 @@
         <v>0.40926903486251798</v>
       </c>
       <c r="N20" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(E20:H20)</f>
         <v>0.26950329094651287</v>
       </c>
       <c r="O20" s="4">
-        <f t="shared" si="1"/>
+        <f>ABS(E20)+ABS(F20)+ABS(G20)+ABS(H20)</f>
         <v>0.31637934786776811</v>
       </c>
       <c r="P20" s="4">
-        <f t="shared" si="2"/>
+        <f>MIN(I20:M20)</f>
         <v>0.36872541904449402</v>
       </c>
       <c r="Q20" s="4">
-        <f t="shared" si="3"/>
+        <f>MIN(E20:H20)</f>
+        <v>-2.3438028460627602E-2</v>
+      </c>
+      <c r="R20" s="4">
+        <f>AVERAGE(I20:M20)</f>
         <v>0.40980752706527657</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
@@ -2247,23 +4762,27 @@
         <v>0.393289685249328</v>
       </c>
       <c r="N21" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(E21:H21)</f>
         <v>7.7339144342171803E-2</v>
       </c>
       <c r="O21" s="4">
-        <f t="shared" si="1"/>
+        <f>ABS(E21)+ABS(F21)+ABS(G21)+ABS(H21)</f>
         <v>0.25594748963175418</v>
       </c>
       <c r="P21" s="4">
-        <f t="shared" si="2"/>
+        <f>MIN(I21:M21)</f>
         <v>0.37348699569702098</v>
       </c>
       <c r="Q21" s="4">
-        <f t="shared" si="3"/>
+        <f>MIN(E21:H21)</f>
+        <v>-5.9315817084104598E-2</v>
+      </c>
+      <c r="R21" s="4">
+        <f>AVERAGE(I21:M21)</f>
         <v>0.41035903096198983</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>25</v>
       </c>
@@ -2304,23 +4823,27 @@
         <v>0.37748071551322898</v>
       </c>
       <c r="N22" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(E22:H22)</f>
         <v>-0.10972209109502677</v>
       </c>
       <c r="O22" s="4">
-        <f t="shared" si="1"/>
+        <f>ABS(E22)+ABS(F22)+ABS(G22)+ABS(H22)</f>
         <v>0.11213206754020223</v>
       </c>
       <c r="P22" s="4">
-        <f t="shared" si="2"/>
+        <f>MIN(I22:M22)</f>
         <v>0.37748071551322898</v>
       </c>
       <c r="Q22" s="4">
-        <f t="shared" si="3"/>
+        <f>MIN(E22:H22)</f>
+        <v>-4.62308559182249E-2</v>
+      </c>
+      <c r="R22" s="4">
+        <f>AVERAGE(I22:M22)</f>
         <v>0.41052899360656692</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>25</v>
       </c>
@@ -2361,23 +4884,27 @@
         <v>0.46646457910537698</v>
       </c>
       <c r="N23" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(E23:H23)</f>
         <v>-0.29190479208191972</v>
       </c>
       <c r="O23" s="4">
-        <f t="shared" si="1"/>
+        <f>ABS(E23)+ABS(F23)+ABS(G23)+ABS(H23)</f>
         <v>0.29190479208191972</v>
       </c>
       <c r="P23" s="4">
-        <f t="shared" si="2"/>
+        <f>MIN(I23:M23)</f>
         <v>0.38959002494812001</v>
       </c>
       <c r="Q23" s="4">
-        <f t="shared" si="3"/>
+        <f>MIN(E23:H23)</f>
+        <v>-0.139781081720146</v>
+      </c>
+      <c r="R23" s="4">
+        <f>AVERAGE(I23:M23)</f>
         <v>0.41079177856445276</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
@@ -2418,23 +4945,27 @@
         <v>0.42408037185668901</v>
       </c>
       <c r="N24" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(E24:H24)</f>
         <v>-0.13489091322420096</v>
       </c>
       <c r="O24" s="4">
-        <f t="shared" si="1"/>
+        <f>ABS(E24)+ABS(F24)+ABS(G24)+ABS(H24)</f>
         <v>0.13489091322420096</v>
       </c>
       <c r="P24" s="4">
-        <f t="shared" si="2"/>
+        <f>MIN(I24:M24)</f>
         <v>0.38107246160507202</v>
       </c>
       <c r="Q24" s="4">
-        <f t="shared" si="3"/>
+        <f>MIN(E24:H24)</f>
+        <v>-0.107354676823072</v>
+      </c>
+      <c r="R24" s="4">
+        <f>AVERAGE(I24:M24)</f>
         <v>0.41138362288475017</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
@@ -2475,23 +5006,27 @@
         <v>0.39293560385704002</v>
       </c>
       <c r="N25" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(E25:H25)</f>
         <v>-0.16783378527425558</v>
       </c>
       <c r="O25" s="4">
-        <f t="shared" si="1"/>
+        <f>ABS(E25)+ABS(F25)+ABS(G25)+ABS(H25)</f>
         <v>0.16783378527425558</v>
       </c>
       <c r="P25" s="4">
-        <f t="shared" si="2"/>
+        <f>MIN(I25:M25)</f>
         <v>0.35206443071365301</v>
       </c>
       <c r="Q25" s="4">
-        <f t="shared" si="3"/>
+        <f>MIN(E25:H25)</f>
+        <v>-0.107354676823072</v>
+      </c>
+      <c r="R25" s="4">
+        <f>AVERAGE(I25:M25)</f>
         <v>0.4122536897659298</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>0</v>
       </c>
@@ -2532,23 +5067,27 @@
         <v>0.39222916960716198</v>
       </c>
       <c r="N26" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(E26:H26)</f>
         <v>-0.20519546169803282</v>
       </c>
       <c r="O26" s="4">
-        <f t="shared" si="1"/>
+        <f>ABS(E26)+ABS(F26)+ABS(G26)+ABS(H26)</f>
         <v>0.23115558188713403</v>
       </c>
       <c r="P26" s="4">
-        <f t="shared" si="2"/>
+        <f>MIN(I26:M26)</f>
         <v>0.39222916960716198</v>
       </c>
       <c r="Q26" s="4">
-        <f t="shared" si="3"/>
+        <f>MIN(E26:H26)</f>
+        <v>-0.14572141267538699</v>
+      </c>
+      <c r="R26" s="4">
+        <f>AVERAGE(I26:M26)</f>
         <v>0.41531412005424456</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>0</v>
       </c>
@@ -2589,23 +5128,27 @@
         <v>0.44378682971000599</v>
       </c>
       <c r="N27" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(E27:H27)</f>
         <v>-0.67004718066712776</v>
       </c>
       <c r="O27" s="4">
-        <f t="shared" si="1"/>
+        <f>ABS(E27)+ABS(F27)+ABS(G27)+ABS(H27)</f>
         <v>0.67004718066712776</v>
       </c>
       <c r="P27" s="4">
-        <f t="shared" si="2"/>
+        <f>MIN(I27:M27)</f>
         <v>0.36591657996177601</v>
       </c>
       <c r="Q27" s="4">
-        <f t="shared" si="3"/>
+        <f>MIN(E27:H27)</f>
+        <v>-0.49525146925701402</v>
+      </c>
+      <c r="R27" s="4">
+        <f>AVERAGE(I27:M27)</f>
         <v>0.41565491557121226</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>22</v>
       </c>
@@ -2646,23 +5189,27 @@
         <v>0.49344369769096302</v>
       </c>
       <c r="N28" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(E28:H28)</f>
         <v>-0.47575091744592446</v>
       </c>
       <c r="O28" s="4">
-        <f t="shared" si="1"/>
+        <f>ABS(E28)+ABS(F28)+ABS(G28)+ABS(H28)</f>
         <v>0.56883863731848949</v>
       </c>
       <c r="P28" s="4">
-        <f t="shared" si="2"/>
+        <f>MIN(I28:M28)</f>
         <v>0.38506770133972101</v>
       </c>
       <c r="Q28" s="4">
-        <f t="shared" si="3"/>
+        <f>MIN(E28:H28)</f>
+        <v>-0.49525146925701402</v>
+      </c>
+      <c r="R28" s="4">
+        <f>AVERAGE(I28:M28)</f>
         <v>0.41581714153289739</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>24</v>
       </c>
@@ -2703,23 +5250,27 @@
         <v>0.42573010921478199</v>
       </c>
       <c r="N29" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(E29:H29)</f>
         <v>-7.6597469265833176E-2</v>
       </c>
       <c r="O29" s="4">
-        <f t="shared" si="1"/>
+        <f>ABS(E29)+ABS(F29)+ABS(G29)+ABS(H29)</f>
         <v>0.14637435528399698</v>
       </c>
       <c r="P29" s="4">
-        <f t="shared" si="2"/>
+        <f>MIN(I29:M29)</f>
         <v>0.39724695682525601</v>
       </c>
       <c r="Q29" s="4">
-        <f t="shared" si="3"/>
+        <f>MIN(E29:H29)</f>
+        <v>-6.9835749167101002E-2</v>
+      </c>
+      <c r="R29" s="4">
+        <f>AVERAGE(I29:M29)</f>
         <v>0.41625002622604318</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>22</v>
       </c>
@@ -2760,23 +5311,27 @@
         <v>0.442328631877899</v>
       </c>
       <c r="N30" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(E30:H30)</f>
         <v>-9.9509541939183072E-2</v>
       </c>
       <c r="O30" s="4">
-        <f t="shared" si="1"/>
+        <f>ABS(E30)+ABS(F30)+ABS(G30)+ABS(H30)</f>
         <v>0.16928642795734689</v>
       </c>
       <c r="P30" s="4">
-        <f t="shared" si="2"/>
+        <f>MIN(I30:M30)</f>
         <v>0.377384573221206</v>
       </c>
       <c r="Q30" s="4">
-        <f t="shared" si="3"/>
+        <f>MIN(E30:H30)</f>
+        <v>-0.107354676823072</v>
+      </c>
+      <c r="R30" s="4">
+        <f>AVERAGE(I30:M30)</f>
         <v>0.4169134616851804</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>16</v>
       </c>
@@ -2817,23 +5372,27 @@
         <v>0.40199947357177701</v>
       </c>
       <c r="N31" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(E31:H31)</f>
         <v>1.803949651156667E-2</v>
       </c>
       <c r="O31" s="4">
-        <f t="shared" si="1"/>
+        <f>ABS(E31)+ABS(F31)+ABS(G31)+ABS(H31)</f>
         <v>0.16294771474595954</v>
       </c>
       <c r="P31" s="4">
-        <f t="shared" si="2"/>
+        <f>MIN(I31:M31)</f>
         <v>0.38555178046226501</v>
       </c>
       <c r="Q31" s="4">
-        <f t="shared" si="3"/>
+        <f>MIN(E31:H31)</f>
+        <v>-6.9835749167101002E-2</v>
+      </c>
+      <c r="R31" s="4">
+        <f>AVERAGE(I31:M31)</f>
         <v>0.41696981787681564</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>25</v>
       </c>
@@ -2874,23 +5433,27 @@
         <v>0.398844003677368</v>
       </c>
       <c r="N32" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(E32:H32)</f>
         <v>0.17224035262304419</v>
       </c>
       <c r="O32" s="4">
-        <f t="shared" si="1"/>
+        <f>ABS(E32)+ABS(F32)+ABS(G32)+ABS(H32)</f>
         <v>0.28192602897721297</v>
       </c>
       <c r="P32" s="4">
-        <f t="shared" si="2"/>
+        <f>MIN(I32:M32)</f>
         <v>0.38351684808731001</v>
       </c>
       <c r="Q32" s="4">
-        <f t="shared" si="3"/>
+        <f>MIN(E32:H32)</f>
+        <v>-4.1258194938761997E-2</v>
+      </c>
+      <c r="R32" s="4">
+        <f>AVERAGE(I32:M32)</f>
         <v>0.41720039248466445</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>27</v>
       </c>
@@ -2931,23 +5494,27 @@
         <v>0.46018642187118503</v>
       </c>
       <c r="N33" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(E33:H33)</f>
         <v>-1.6376382586615001E-2</v>
       </c>
       <c r="O33" s="4">
-        <f t="shared" si="1"/>
+        <f>ABS(E33)+ABS(F33)+ABS(G33)+ABS(H33)</f>
         <v>0.2844740436770718</v>
       </c>
       <c r="P33" s="4">
-        <f t="shared" si="2"/>
+        <f>MIN(I33:M33)</f>
         <v>0.38023042678833002</v>
       </c>
       <c r="Q33" s="4">
-        <f t="shared" si="3"/>
+        <f>MIN(E33:H33)</f>
+        <v>-0.136840569893521</v>
+      </c>
+      <c r="R33" s="4">
+        <f>AVERAGE(I33:M33)</f>
         <v>0.41734394431114163</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>25</v>
       </c>
@@ -2988,23 +5555,27 @@
         <v>0.38589796423911998</v>
       </c>
       <c r="N34" s="4">
-        <f t="shared" ref="N34:N65" si="4">SUM(E34:H34)</f>
+        <f>SUM(E34:H34)</f>
         <v>-9.6908895788724664E-2</v>
       </c>
       <c r="O34" s="4">
-        <f t="shared" ref="O34:O65" si="5">ABS(E34)+ABS(F34)+ABS(G34)+ABS(H34)</f>
+        <f>ABS(E34)+ABS(F34)+ABS(G34)+ABS(H34)</f>
         <v>0.12527899242300133</v>
       </c>
       <c r="P34" s="4">
-        <f t="shared" ref="P34:P65" si="6">MIN(I34:M34)</f>
+        <f>MIN(I34:M34)</f>
         <v>0.38589796423911998</v>
       </c>
       <c r="Q34" s="4">
-        <f t="shared" ref="Q34:Q65" si="7">AVERAGE(I34:M34)</f>
+        <f>MIN(E34:H34)</f>
+        <v>-6.9835749167101002E-2</v>
+      </c>
+      <c r="R34" s="4">
+        <f>AVERAGE(I34:M34)</f>
         <v>0.41756497025489736</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>27</v>
       </c>
@@ -3045,23 +5616,27 @@
         <v>0.37001475691795299</v>
       </c>
       <c r="N35" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(E35:H35)</f>
         <v>-1.5208304616750381E-2</v>
       </c>
       <c r="O35" s="4">
-        <f t="shared" si="5"/>
+        <f>ABS(E35)+ABS(F35)+ABS(G35)+ABS(H35)</f>
         <v>4.392614940457519E-2</v>
       </c>
       <c r="P35" s="4">
-        <f t="shared" si="6"/>
+        <f>MIN(I35:M35)</f>
         <v>0.37001475691795299</v>
       </c>
       <c r="Q35" s="4">
-        <f t="shared" si="7"/>
+        <f>MIN(E35:H35)</f>
+        <v>-2.3438028460627602E-2</v>
+      </c>
+      <c r="R35" s="4">
+        <f>AVERAGE(I35:M35)</f>
         <v>0.41775328516960081</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>16</v>
       </c>
@@ -3102,23 +5677,27 @@
         <v>0.44273743033409102</v>
       </c>
       <c r="N36" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(E36:H36)</f>
         <v>-0.54453894534839686</v>
       </c>
       <c r="O36" s="4">
-        <f t="shared" si="5"/>
+        <f>ABS(E36)+ABS(F36)+ABS(G36)+ABS(H36)</f>
         <v>0.72552615660592312</v>
       </c>
       <c r="P36" s="4">
-        <f t="shared" si="6"/>
+        <f>MIN(I36:M36)</f>
         <v>0.40544626116752602</v>
       </c>
       <c r="Q36" s="4">
-        <f t="shared" si="7"/>
+        <f>MIN(E36:H36)</f>
+        <v>-0.49525146925701402</v>
+      </c>
+      <c r="R36" s="4">
+        <f>AVERAGE(I36:M36)</f>
         <v>0.41783926486968959</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>25</v>
       </c>
@@ -3159,23 +5738,27 @@
         <v>0.42016133666038502</v>
       </c>
       <c r="N37" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(E37:H37)</f>
         <v>-0.18378616482651211</v>
       </c>
       <c r="O37" s="4">
-        <f t="shared" si="5"/>
+        <f>ABS(E37)+ABS(F37)+ABS(G37)+ABS(H37)</f>
         <v>0.20974628501561329</v>
       </c>
       <c r="P37" s="4">
-        <f t="shared" si="6"/>
+        <f>MIN(I37:M37)</f>
         <v>0.37924578785896301</v>
       </c>
       <c r="Q37" s="4">
-        <f t="shared" si="7"/>
+        <f>MIN(E37:H37)</f>
+        <v>-0.139781081720146</v>
+      </c>
+      <c r="R37" s="4">
+        <f>AVERAGE(I37:M37)</f>
         <v>0.41800605654716466</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>0</v>
       </c>
@@ -3216,23 +5799,27 @@
         <v>0.40255841612815801</v>
       </c>
       <c r="N38" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(E38:H38)</f>
         <v>-0.39947184060757013</v>
       </c>
       <c r="O38" s="4">
-        <f t="shared" si="5"/>
+        <f>ABS(E38)+ABS(F38)+ABS(G38)+ABS(H38)</f>
         <v>0.39947184060757013</v>
       </c>
       <c r="P38" s="4">
-        <f t="shared" si="6"/>
+        <f>MIN(I38:M38)</f>
         <v>0.36884295940399098</v>
       </c>
       <c r="Q38" s="4">
-        <f t="shared" si="7"/>
+        <f>MIN(E38:H38)</f>
+        <v>-0.14572141267538699</v>
+      </c>
+      <c r="R38" s="4">
+        <f>AVERAGE(I38:M38)</f>
         <v>0.41906496286392159</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>25</v>
       </c>
@@ -3273,23 +5860,27 @@
         <v>0.44646584987640298</v>
       </c>
       <c r="N39" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(E39:H39)</f>
         <v>-7.0186354443679669E-2</v>
       </c>
       <c r="O39" s="4">
-        <f t="shared" si="5"/>
+        <f>ABS(E39)+ABS(F39)+ABS(G39)+ABS(H39)</f>
         <v>0.16327407431624469</v>
       </c>
       <c r="P39" s="4">
-        <f t="shared" si="6"/>
+        <f>MIN(I39:M39)</f>
         <v>0.39386215806007302</v>
       </c>
       <c r="Q39" s="4">
-        <f t="shared" si="7"/>
+        <f>MIN(E39:H39)</f>
+        <v>-6.9835749167101002E-2</v>
+      </c>
+      <c r="R39" s="4">
+        <f>AVERAGE(I39:M39)</f>
         <v>0.42037651538848797</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>26</v>
       </c>
@@ -3330,23 +5921,27 @@
         <v>0.42865899205207803</v>
       </c>
       <c r="N40" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(E40:H40)</f>
         <v>-0.15776777630114799</v>
       </c>
       <c r="O40" s="4">
-        <f t="shared" si="5"/>
+        <f>ABS(E40)+ABS(F40)+ABS(G40)+ABS(H40)</f>
         <v>0.1837278964902492</v>
       </c>
       <c r="P40" s="4">
-        <f t="shared" si="6"/>
+        <f>MIN(I40:M40)</f>
         <v>0.41014298796653698</v>
       </c>
       <c r="Q40" s="4">
-        <f t="shared" si="7"/>
+        <f>MIN(E40:H40)</f>
+        <v>-0.140759480835012</v>
+      </c>
+      <c r="R40" s="4">
+        <f>AVERAGE(I40:M40)</f>
         <v>0.42139491438865628</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>26</v>
       </c>
@@ -3387,23 +5982,27 @@
         <v>0.47280135750770502</v>
       </c>
       <c r="N41" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(E41:H41)</f>
         <v>-0.53646174361611332</v>
       </c>
       <c r="O41" s="4">
-        <f t="shared" si="5"/>
+        <f>ABS(E41)+ABS(F41)+ABS(G41)+ABS(H41)</f>
         <v>0.53646174361611332</v>
       </c>
       <c r="P41" s="4">
-        <f t="shared" si="6"/>
+        <f>MIN(I41:M41)</f>
         <v>0.318016827106475</v>
       </c>
       <c r="Q41" s="4">
-        <f t="shared" si="7"/>
+        <f>MIN(E41:H41)</f>
+        <v>-0.49525146925701402</v>
+      </c>
+      <c r="R41" s="4">
+        <f>AVERAGE(I41:M41)</f>
         <v>0.42145465016364997</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>0</v>
       </c>
@@ -3444,23 +6043,27 @@
         <v>0.394514709711074</v>
       </c>
       <c r="N42" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(E42:H42)</f>
         <v>-0.23270782358469297</v>
       </c>
       <c r="O42" s="4">
-        <f t="shared" si="5"/>
+        <f>ABS(E42)+ABS(F42)+ABS(G42)+ABS(H42)</f>
         <v>0.47208763988732494</v>
       </c>
       <c r="P42" s="4">
-        <f t="shared" si="6"/>
+        <f>MIN(I42:M42)</f>
         <v>0.394514709711074</v>
       </c>
       <c r="Q42" s="4">
-        <f t="shared" si="7"/>
+        <f>MIN(E42:H42)</f>
+        <v>-0.14572141267538699</v>
+      </c>
+      <c r="R42" s="4">
+        <f>AVERAGE(I42:M42)</f>
         <v>0.42159061431884703</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>27</v>
       </c>
@@ -3501,23 +6104,27 @@
         <v>0.46001592278480502</v>
       </c>
       <c r="N43" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(E43:H43)</f>
         <v>-7.7553656222601103E-2</v>
       </c>
       <c r="O43" s="4">
-        <f t="shared" si="5"/>
+        <f>ABS(E43)+ABS(F43)+ABS(G43)+ABS(H43)</f>
         <v>0.2020085072176909</v>
       </c>
       <c r="P43" s="4">
-        <f t="shared" si="6"/>
+        <f>MIN(I43:M43)</f>
         <v>0.366142958402633</v>
       </c>
       <c r="Q43" s="4">
-        <f t="shared" si="7"/>
+        <f>MIN(E43:H43)</f>
+        <v>-0.139781081720146</v>
+      </c>
+      <c r="R43" s="4">
+        <f>AVERAGE(I43:M43)</f>
         <v>0.42183616161346371</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>26</v>
       </c>
@@ -3558,23 +6165,27 @@
         <v>0.43658798933029103</v>
       </c>
       <c r="N44" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(E44:H44)</f>
         <v>-3.6228653362000401E-2</v>
       </c>
       <c r="O44" s="4">
-        <f t="shared" si="5"/>
+        <f>ABS(E44)+ABS(F44)+ABS(G44)+ABS(H44)</f>
         <v>0.1319656595692654</v>
       </c>
       <c r="P44" s="4">
-        <f t="shared" si="6"/>
+        <f>MIN(I44:M44)</f>
         <v>0.37550306320190402</v>
       </c>
       <c r="Q44" s="4">
-        <f t="shared" si="7"/>
+        <f>MIN(E44:H44)</f>
+        <v>-6.9835749167101002E-2</v>
+      </c>
+      <c r="R44" s="4">
+        <f>AVERAGE(I44:M44)</f>
         <v>0.42294487953185983</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>24</v>
       </c>
@@ -3615,23 +6226,27 @@
         <v>0.44305869936942999</v>
       </c>
       <c r="N45" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(E45:H45)</f>
         <v>-0.19813659220498075</v>
       </c>
       <c r="O45" s="4">
-        <f t="shared" si="5"/>
+        <f>ABS(E45)+ABS(F45)+ABS(G45)+ABS(H45)</f>
         <v>0.19813659220498075</v>
       </c>
       <c r="P45" s="4">
-        <f t="shared" si="6"/>
+        <f>MIN(I45:M45)</f>
         <v>0.37146580219268799</v>
       </c>
       <c r="Q45" s="4">
-        <f t="shared" si="7"/>
+        <f>MIN(E45:H45)</f>
+        <v>-0.140759480835012</v>
+      </c>
+      <c r="R45" s="4">
+        <f>AVERAGE(I45:M45)</f>
         <v>0.42302011847495979</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>24</v>
       </c>
@@ -3672,23 +6287,27 @@
         <v>0.406197309494018</v>
       </c>
       <c r="N46" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(E46:H46)</f>
         <v>-0.3283624927095366</v>
       </c>
       <c r="O46" s="4">
-        <f t="shared" si="5"/>
+        <f>ABS(E46)+ABS(F46)+ABS(G46)+ABS(H46)</f>
         <v>0.3283624927095366</v>
       </c>
       <c r="P46" s="4">
-        <f t="shared" si="6"/>
+        <f>MIN(I46:M46)</f>
         <v>0.35353168845176602</v>
       </c>
       <c r="Q46" s="4">
-        <f t="shared" si="7"/>
+        <f>MIN(E46:H46)</f>
+        <v>-0.139781081720146</v>
+      </c>
+      <c r="R46" s="4">
+        <f>AVERAGE(I46:M46)</f>
         <v>0.423721951246261</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>26</v>
       </c>
@@ -3729,23 +6348,27 @@
         <v>0.39838135242462103</v>
       </c>
       <c r="N47" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(E47:H47)</f>
         <v>-4.9041848668302503E-2</v>
       </c>
       <c r="O47" s="4">
-        <f t="shared" si="5"/>
+        <f>ABS(E47)+ABS(F47)+ABS(G47)+ABS(H47)</f>
         <v>0.11881873468646631</v>
       </c>
       <c r="P47" s="4">
-        <f t="shared" si="6"/>
+        <f>MIN(I47:M47)</f>
         <v>0.37427827715873702</v>
       </c>
       <c r="Q47" s="4">
-        <f t="shared" si="7"/>
+        <f>MIN(E47:H47)</f>
+        <v>-4.62308559182249E-2</v>
+      </c>
+      <c r="R47" s="4">
+        <f>AVERAGE(I47:M47)</f>
         <v>0.42423598766326875</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>26</v>
       </c>
@@ -3786,23 +6409,27 @@
         <v>0.43727269768714899</v>
       </c>
       <c r="N48" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(E48:H48)</f>
         <v>-0.1902669539148352</v>
       </c>
       <c r="O48" s="4">
-        <f t="shared" si="5"/>
+        <f>ABS(E48)+ABS(F48)+ABS(G48)+ABS(H48)</f>
         <v>0.1902669539148352</v>
       </c>
       <c r="P48" s="4">
-        <f t="shared" si="6"/>
+        <f>MIN(I48:M48)</f>
         <v>0.368789613246917</v>
       </c>
       <c r="Q48" s="4">
-        <f t="shared" si="7"/>
+        <f>MIN(E48:H48)</f>
+        <v>-0.136840569893521</v>
+      </c>
+      <c r="R48" s="4">
+        <f>AVERAGE(I48:M48)</f>
         <v>0.4248495578765864</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>0</v>
       </c>
@@ -3843,23 +6470,27 @@
         <v>0.44315671920776301</v>
       </c>
       <c r="N49" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(E49:H49)</f>
         <v>-0.58059879086518962</v>
       </c>
       <c r="O49" s="4">
-        <f t="shared" si="5"/>
+        <f>ABS(E49)+ABS(F49)+ABS(G49)+ABS(H49)</f>
         <v>0.81997860716782167</v>
       </c>
       <c r="P49" s="4">
-        <f t="shared" si="6"/>
+        <f>MIN(I49:M49)</f>
         <v>0.39834129810333202</v>
       </c>
       <c r="Q49" s="4">
-        <f t="shared" si="7"/>
+        <f>MIN(E49:H49)</f>
+        <v>-0.49525146925701402</v>
+      </c>
+      <c r="R49" s="4">
+        <f>AVERAGE(I49:M49)</f>
         <v>0.42521966695785485</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>24</v>
       </c>
@@ -3900,23 +6531,27 @@
         <v>0.396277606487274</v>
       </c>
       <c r="N50" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(E50:H50)</f>
         <v>-0.1871373874630039</v>
       </c>
       <c r="O50" s="4">
-        <f t="shared" si="5"/>
+        <f>ABS(E50)+ABS(F50)+ABS(G50)+ABS(H50)</f>
         <v>0.25691427348116769</v>
       </c>
       <c r="P50" s="4">
-        <f t="shared" si="6"/>
+        <f>MIN(I50:M50)</f>
         <v>0.389473766088485</v>
       </c>
       <c r="Q50" s="4">
-        <f t="shared" si="7"/>
+        <f>MIN(E50:H50)</f>
+        <v>-0.139781081720146</v>
+      </c>
+      <c r="R50" s="4">
+        <f>AVERAGE(I50:M50)</f>
         <v>0.42582878470420782</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>16</v>
       </c>
@@ -3957,23 +6592,27 @@
         <v>0.38845726847648598</v>
       </c>
       <c r="N51" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(E51:H51)</f>
         <v>7.1532247466299104E-3</v>
       </c>
       <c r="O51" s="4">
-        <f t="shared" si="5"/>
+        <f>ABS(E51)+ABS(F51)+ABS(G51)+ABS(H51)</f>
         <v>0.32012608294096329</v>
       </c>
       <c r="P51" s="4">
-        <f t="shared" si="6"/>
+        <f>MIN(I51:M51)</f>
         <v>0.38845726847648598</v>
       </c>
       <c r="Q51" s="4">
-        <f t="shared" si="7"/>
+        <f>MIN(E51:H51)</f>
+        <v>-0.140759480835012</v>
+      </c>
+      <c r="R51" s="4">
+        <f>AVERAGE(I51:M51)</f>
         <v>0.42607452273368801</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>25</v>
       </c>
@@ -4014,23 +6653,27 @@
         <v>0.41015782952308599</v>
       </c>
       <c r="N52" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(E52:H52)</f>
         <v>0.14589606870624863</v>
       </c>
       <c r="O52" s="4">
-        <f t="shared" si="5"/>
+        <f>ABS(E52)+ABS(F52)+ABS(G52)+ABS(H52)</f>
         <v>0.28231019270490731</v>
       </c>
       <c r="P52" s="4">
-        <f t="shared" si="6"/>
+        <f>MIN(I52:M52)</f>
         <v>0.41015782952308599</v>
       </c>
       <c r="Q52" s="4">
-        <f t="shared" si="7"/>
+        <f>MIN(E52:H52)</f>
+        <v>-4.1258194938761997E-2</v>
+      </c>
+      <c r="R52" s="4">
+        <f>AVERAGE(I52:M52)</f>
         <v>0.42696208357810939</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>24</v>
       </c>
@@ -4071,23 +6714,27 @@
         <v>0.37371903657913202</v>
       </c>
       <c r="N53" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(E53:H53)</f>
         <v>-9.8447751940357639E-2</v>
       </c>
       <c r="O53" s="4">
-        <f t="shared" si="5"/>
+        <f>ABS(E53)+ABS(F53)+ABS(G53)+ABS(H53)</f>
         <v>9.8447751940357639E-2</v>
       </c>
       <c r="P53" s="4">
-        <f t="shared" si="6"/>
+        <f>MIN(I53:M53)</f>
         <v>0.37371903657913202</v>
       </c>
       <c r="Q53" s="4">
-        <f t="shared" si="7"/>
+        <f>MIN(E53:H53)</f>
+        <v>-4.62308559182249E-2</v>
+      </c>
+      <c r="R53" s="4">
+        <f>AVERAGE(I53:M53)</f>
         <v>0.42750180959701478</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>16</v>
       </c>
@@ -4128,23 +6775,27 @@
         <v>0.45761018991470298</v>
       </c>
       <c r="N54" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(E54:H54)</f>
         <v>-7.9607934319009227E-2</v>
       </c>
       <c r="O54" s="4">
-        <f t="shared" si="5"/>
+        <f>ABS(E54)+ABS(F54)+ABS(G54)+ABS(H54)</f>
         <v>0.16750742570397043</v>
       </c>
       <c r="P54" s="4">
-        <f t="shared" si="6"/>
+        <f>MIN(I54:M54)</f>
         <v>0.369769126176834</v>
       </c>
       <c r="Q54" s="4">
-        <f t="shared" si="7"/>
+        <f>MIN(E54:H54)</f>
+        <v>-0.107354676823072</v>
+      </c>
+      <c r="R54" s="4">
+        <f>AVERAGE(I54:M54)</f>
         <v>0.42793172597885099</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>16</v>
       </c>
@@ -4185,23 +6836,27 @@
         <v>0.44344636797904902</v>
       </c>
       <c r="N55" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(E55:H55)</f>
         <v>-0.1682975698416555</v>
       </c>
       <c r="O55" s="4">
-        <f t="shared" si="5"/>
+        <f>ABS(E55)+ABS(F55)+ABS(G55)+ABS(H55)</f>
         <v>0.32597394724478052</v>
       </c>
       <c r="P55" s="4">
-        <f t="shared" si="6"/>
+        <f>MIN(I55:M55)</f>
         <v>0.33620071411132801</v>
       </c>
       <c r="Q55" s="4">
-        <f t="shared" si="7"/>
+        <f>MIN(E55:H55)</f>
+        <v>-0.139781081720146</v>
+      </c>
+      <c r="R55" s="4">
+        <f>AVERAGE(I55:M55)</f>
         <v>0.42858333587646447</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>24</v>
       </c>
@@ -4242,23 +6897,27 @@
         <v>0.41466638445854098</v>
       </c>
       <c r="N56" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(E56:H56)</f>
         <v>2.7664024740019694E-2</v>
       </c>
       <c r="O56" s="4">
-        <f t="shared" si="5"/>
+        <f>ABS(E56)+ABS(F56)+ABS(G56)+ABS(H56)</f>
         <v>0.40054223667113631</v>
       </c>
       <c r="P56" s="4">
-        <f t="shared" si="6"/>
+        <f>MIN(I56:M56)</f>
         <v>0.38953119516372597</v>
       </c>
       <c r="Q56" s="4">
-        <f t="shared" si="7"/>
+        <f>MIN(E56:H56)</f>
+        <v>-0.136840569893521</v>
+      </c>
+      <c r="R56" s="4">
+        <f>AVERAGE(I56:M56)</f>
         <v>0.42937073111534058</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>16</v>
       </c>
@@ -4299,23 +6958,27 @@
         <v>0.443111062049865</v>
       </c>
       <c r="N57" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(E57:H57)</f>
         <v>0.1286923476857775</v>
       </c>
       <c r="O57" s="4">
-        <f t="shared" si="5"/>
+        <f>ABS(E57)+ABS(F57)+ABS(G57)+ABS(H57)</f>
         <v>0.26836384601997954</v>
       </c>
       <c r="P57" s="4">
-        <f t="shared" si="6"/>
+        <f>MIN(I57:M57)</f>
         <v>0.40394756197929299</v>
       </c>
       <c r="Q57" s="4">
-        <f t="shared" si="7"/>
+        <f>MIN(E57:H57)</f>
+        <v>-6.9835749167101002E-2</v>
+      </c>
+      <c r="R57" s="4">
+        <f>AVERAGE(I57:M57)</f>
         <v>0.43108751177787719</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>26</v>
       </c>
@@ -4356,23 +7019,27 @@
         <v>0.422886222600936</v>
       </c>
       <c r="N58" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(E58:H58)</f>
         <v>-0.26588640355655563</v>
       </c>
       <c r="O58" s="4">
-        <f t="shared" si="5"/>
+        <f>ABS(E58)+ABS(F58)+ABS(G58)+ABS(H58)</f>
         <v>0.26588640355655563</v>
       </c>
       <c r="P58" s="4">
-        <f t="shared" si="6"/>
+        <f>MIN(I58:M58)</f>
         <v>0.40466696023941001</v>
       </c>
       <c r="Q58" s="4">
-        <f t="shared" si="7"/>
+        <f>MIN(E58:H58)</f>
+        <v>-0.140759480835012</v>
+      </c>
+      <c r="R58" s="4">
+        <f>AVERAGE(I58:M58)</f>
         <v>0.43124774098396257</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>0</v>
       </c>
@@ -4413,23 +7080,27 @@
         <v>0.39513796567916798</v>
       </c>
       <c r="N59" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(E59:H59)</f>
         <v>-0.21302184127730792</v>
       </c>
       <c r="O59" s="4">
-        <f t="shared" si="5"/>
+        <f>ABS(E59)+ABS(F59)+ABS(G59)+ABS(H59)</f>
         <v>0.45240165757993989</v>
       </c>
       <c r="P59" s="4">
-        <f t="shared" si="6"/>
+        <f>MIN(I59:M59)</f>
         <v>0.38972112536430298</v>
       </c>
       <c r="Q59" s="4">
-        <f t="shared" si="7"/>
+        <f>MIN(E59:H59)</f>
+        <v>-0.14572141267538699</v>
+      </c>
+      <c r="R59" s="4">
+        <f>AVERAGE(I59:M59)</f>
         <v>0.43191881179809516</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>26</v>
       </c>
@@ -4470,23 +7141,27 @@
         <v>0.50823658704757602</v>
       </c>
       <c r="N60" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(E60:H60)</f>
         <v>9.2566410531883803E-2</v>
       </c>
       <c r="O60" s="4">
-        <f t="shared" si="5"/>
+        <f>ABS(E60)+ABS(F60)+ABS(G60)+ABS(H60)</f>
         <v>0.24072022344204219</v>
       </c>
       <c r="P60" s="4">
-        <f t="shared" si="6"/>
+        <f>MIN(I60:M60)</f>
         <v>0.358230710029602</v>
       </c>
       <c r="Q60" s="4">
-        <f t="shared" si="7"/>
+        <f>MIN(E60:H60)</f>
+        <v>-4.62308559182249E-2</v>
+      </c>
+      <c r="R60" s="4">
+        <f>AVERAGE(I60:M60)</f>
         <v>0.43264909386634781</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>22</v>
       </c>
@@ -4527,23 +7202,27 @@
         <v>0.42499521374702398</v>
       </c>
       <c r="N61" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(E61:H61)</f>
         <v>-0.26439729634509906</v>
       </c>
       <c r="O61" s="4">
-        <f t="shared" si="5"/>
+        <f>ABS(E61)+ABS(F61)+ABS(G61)+ABS(H61)</f>
         <v>0.26680727279027455</v>
       </c>
       <c r="P61" s="4">
-        <f t="shared" si="6"/>
+        <f>MIN(I61:M61)</f>
         <v>0.35282272100448597</v>
       </c>
       <c r="Q61" s="4">
-        <f t="shared" si="7"/>
+        <f>MIN(E61:H61)</f>
+        <v>-0.136840569893521</v>
+      </c>
+      <c r="R61" s="4">
+        <f>AVERAGE(I61:M61)</f>
         <v>0.43326212167739825</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>27</v>
       </c>
@@ -4584,23 +7263,27 @@
         <v>0.39119973778724598</v>
       </c>
       <c r="N62" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(E62:H62)</f>
         <v>0.16178132586845384</v>
       </c>
       <c r="O62" s="4">
-        <f t="shared" si="5"/>
+        <f>ABS(E62)+ABS(F62)+ABS(G62)+ABS(H62)</f>
         <v>0.20022315289329698</v>
       </c>
       <c r="P62" s="4">
-        <f t="shared" si="6"/>
+        <f>MIN(I62:M62)</f>
         <v>0.36514335870742798</v>
       </c>
       <c r="Q62" s="4">
-        <f t="shared" si="7"/>
+        <f>MIN(E62:H62)</f>
+        <v>-1.35846432383224E-2</v>
+      </c>
+      <c r="R62" s="4">
+        <f>AVERAGE(I62:M62)</f>
         <v>0.43336118459701478</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>25</v>
       </c>
@@ -4641,23 +7324,27 @@
         <v>0.44074693322181702</v>
       </c>
       <c r="N63" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(E63:H63)</f>
         <v>5.0851254455132472E-3</v>
       </c>
       <c r="O63" s="4">
-        <f t="shared" si="5"/>
+        <f>ABS(E63)+ABS(F63)+ABS(G63)+ABS(H63)</f>
         <v>0.23429469085711874</v>
       </c>
       <c r="P63" s="4">
-        <f t="shared" si="6"/>
+        <f>MIN(I63:M63)</f>
         <v>0.40563690662384</v>
       </c>
       <c r="Q63" s="4">
-        <f t="shared" si="7"/>
+        <f>MIN(E63:H63)</f>
+        <v>-6.9835749167101002E-2</v>
+      </c>
+      <c r="R63" s="4">
+        <f>AVERAGE(I63:M63)</f>
         <v>0.43346283435821481</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>16</v>
       </c>
@@ -4698,23 +7385,27 @@
         <v>0.442571520805358</v>
       </c>
       <c r="N64" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(E64:H64)</f>
         <v>0.14196230173493032</v>
       </c>
       <c r="O64" s="4">
-        <f t="shared" si="5"/>
+        <f>ABS(E64)+ABS(F64)+ABS(G64)+ABS(H64)</f>
         <v>0.2816338000691323</v>
       </c>
       <c r="P64" s="4">
-        <f t="shared" si="6"/>
+        <f>MIN(I64:M64)</f>
         <v>0.413067817687988</v>
       </c>
       <c r="Q64" s="4">
-        <f t="shared" si="7"/>
+        <f>MIN(E64:H64)</f>
+        <v>-6.9835749167101002E-2</v>
+      </c>
+      <c r="R64" s="4">
+        <f>AVERAGE(I64:M64)</f>
         <v>0.43350896835327096</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>0</v>
       </c>
@@ -4755,23 +7446,27 @@
         <v>0.44834455847740101</v>
       </c>
       <c r="N65" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(E65:H65)</f>
         <v>-0.31501026653265901</v>
       </c>
       <c r="O65" s="4">
-        <f t="shared" si="5"/>
+        <f>ABS(E65)+ABS(F65)+ABS(G65)+ABS(H65)</f>
         <v>0.31501026653265901</v>
       </c>
       <c r="P65" s="4">
-        <f t="shared" si="6"/>
+        <f>MIN(I65:M65)</f>
         <v>0.40179818868637002</v>
       </c>
       <c r="Q65" s="4">
-        <f t="shared" si="7"/>
+        <f>MIN(E65:H65)</f>
+        <v>-0.14572141267538699</v>
+      </c>
+      <c r="R65" s="4">
+        <f>AVERAGE(I65:M65)</f>
         <v>0.43479230999946539</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>22</v>
       </c>
@@ -4812,23 +7507,27 @@
         <v>0.451346725225448</v>
       </c>
       <c r="N66" s="4">
-        <f t="shared" ref="N66:N97" si="8">SUM(E66:H66)</f>
+        <f>SUM(E66:H66)</f>
         <v>8.6940457391079196E-2</v>
       </c>
       <c r="O66" s="4">
-        <f t="shared" ref="O66:O97" si="9">ABS(E66)+ABS(F66)+ABS(G66)+ABS(H66)</f>
+        <f>ABS(E66)+ABS(F66)+ABS(G66)+ABS(H66)</f>
         <v>0.22221624492971659</v>
       </c>
       <c r="P66" s="4">
-        <f t="shared" ref="P66:P97" si="10">MIN(I66:M66)</f>
+        <f>MIN(I66:M66)</f>
         <v>0.388520807027816</v>
       </c>
       <c r="Q66" s="4">
-        <f t="shared" ref="Q66:Q97" si="11">AVERAGE(I66:M66)</f>
+        <f>MIN(E66:H66)</f>
+        <v>-4.62308559182249E-2</v>
+      </c>
+      <c r="R66" s="4">
+        <f>AVERAGE(I66:M66)</f>
         <v>0.43522381186485221</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>27</v>
       </c>
@@ -4869,23 +7568,27 @@
         <v>0.48637071251869202</v>
       </c>
       <c r="N67" s="4">
-        <f t="shared" si="8"/>
+        <f>SUM(E67:H67)</f>
         <v>-0.14471468773764848</v>
       </c>
       <c r="O67" s="4">
-        <f t="shared" si="9"/>
+        <f>ABS(E67)+ABS(F67)+ABS(G67)+ABS(H67)</f>
         <v>0.17584250897064874</v>
       </c>
       <c r="P67" s="4">
-        <f t="shared" si="10"/>
+        <f>MIN(I67:M67)</f>
         <v>0.36965489387512201</v>
       </c>
       <c r="Q67" s="4">
-        <f t="shared" si="11"/>
+        <f>MIN(E67:H67)</f>
+        <v>-0.136840569893521</v>
+      </c>
+      <c r="R67" s="4">
+        <f>AVERAGE(I67:M67)</f>
         <v>0.43575823903083782</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>22</v>
       </c>
@@ -4926,23 +7629,27 @@
         <v>0.44868433475494301</v>
       </c>
       <c r="N68" s="4">
-        <f t="shared" si="8"/>
+        <f>SUM(E68:H68)</f>
         <v>-2.3712393783131627E-2</v>
       </c>
       <c r="O68" s="4">
-        <f t="shared" si="9"/>
+        <f>ABS(E68)+ABS(F68)+ABS(G68)+ABS(H68)</f>
         <v>0.11680011365569663</v>
       </c>
       <c r="P68" s="4">
-        <f t="shared" si="10"/>
+        <f>MIN(I68:M68)</f>
         <v>0.35579273104667603</v>
       </c>
       <c r="Q68" s="4">
-        <f t="shared" si="11"/>
+        <f>MIN(E68:H68)</f>
+        <v>-4.62308559182249E-2</v>
+      </c>
+      <c r="R68" s="4">
+        <f>AVERAGE(I68:M68)</f>
         <v>0.43589244484901385</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>24</v>
       </c>
@@ -4983,23 +7690,27 @@
         <v>0.431070506572723</v>
       </c>
       <c r="N69" s="4">
-        <f t="shared" si="8"/>
+        <f>SUM(E69:H69)</f>
         <v>-0.11367501813006964</v>
       </c>
       <c r="O69" s="4">
-        <f t="shared" si="9"/>
+        <f>ABS(E69)+ABS(F69)+ABS(G69)+ABS(H69)</f>
         <v>0.11367501813006964</v>
       </c>
       <c r="P69" s="4">
-        <f t="shared" si="10"/>
+        <f>MIN(I69:M69)</f>
         <v>0.366671413183212</v>
       </c>
       <c r="Q69" s="4">
-        <f t="shared" si="11"/>
+        <f>MIN(E69:H69)</f>
+        <v>-5.9315817084104598E-2</v>
+      </c>
+      <c r="R69" s="4">
+        <f>AVERAGE(I69:M69)</f>
         <v>0.43639327883720364</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>16</v>
       </c>
@@ -5040,23 +7751,27 @@
         <v>0.37696048617362898</v>
       </c>
       <c r="N70" s="4">
-        <f t="shared" si="8"/>
+        <f>SUM(E70:H70)</f>
         <v>5.5085032697142905E-2</v>
       </c>
       <c r="O70" s="4">
-        <f t="shared" si="9"/>
+        <f>ABS(E70)+ABS(F70)+ABS(G70)+ABS(H70)</f>
         <v>0.36610109266174429</v>
       </c>
       <c r="P70" s="4">
-        <f t="shared" si="10"/>
+        <f>MIN(I70:M70)</f>
         <v>0.36295732855796797</v>
       </c>
       <c r="Q70" s="4">
-        <f t="shared" si="11"/>
+        <f>MIN(E70:H70)</f>
+        <v>-0.139781081720146</v>
+      </c>
+      <c r="R70" s="4">
+        <f>AVERAGE(I70:M70)</f>
         <v>0.43693504929542482</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>0</v>
       </c>
@@ -5097,23 +7812,27 @@
         <v>0.45564505457878102</v>
       </c>
       <c r="N71" s="4">
-        <f t="shared" si="8"/>
+        <f>SUM(E71:H71)</f>
         <v>0.17570921793304939</v>
       </c>
       <c r="O71" s="4">
-        <f t="shared" si="9"/>
+        <f>ABS(E71)+ABS(F71)+ABS(G71)+ABS(H71)</f>
         <v>0.58578367745203253</v>
       </c>
       <c r="P71" s="4">
-        <f t="shared" si="10"/>
+        <f>MIN(I71:M71)</f>
         <v>0.38734954595565702</v>
       </c>
       <c r="Q71" s="4">
-        <f t="shared" si="11"/>
+        <f>MIN(E71:H71)</f>
+        <v>-0.14572141267538699</v>
+      </c>
+      <c r="R71" s="4">
+        <f>AVERAGE(I71:M71)</f>
         <v>0.43736463189125024</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>22</v>
       </c>
@@ -5154,23 +7873,27 @@
         <v>0.41571000218391402</v>
       </c>
       <c r="N72" s="4">
-        <f t="shared" si="8"/>
+        <f>SUM(E72:H72)</f>
         <v>0.35582857124150746</v>
       </c>
       <c r="O72" s="4">
-        <f t="shared" si="9"/>
+        <f>ABS(E72)+ABS(F72)+ABS(G72)+ABS(H72)</f>
         <v>0.40566432414357456</v>
       </c>
       <c r="P72" s="4">
-        <f t="shared" si="10"/>
+        <f>MIN(I72:M72)</f>
         <v>0.40728941559791498</v>
       </c>
       <c r="Q72" s="4">
-        <f t="shared" si="11"/>
+        <f>MIN(E72:H72)</f>
+        <v>-2.14070378510938E-2</v>
+      </c>
+      <c r="R72" s="4">
+        <f>AVERAGE(I72:M72)</f>
         <v>0.43907134532928421</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>22</v>
       </c>
@@ -5211,23 +7934,27 @@
         <v>0.44664883613586398</v>
       </c>
       <c r="N73" s="4">
-        <f t="shared" si="8"/>
+        <f>SUM(E73:H73)</f>
         <v>0.12387306059961532</v>
       </c>
       <c r="O73" s="4">
-        <f t="shared" si="9"/>
+        <f>ABS(E73)+ABS(F73)+ABS(G73)+ABS(H73)</f>
         <v>0.20941357337431066</v>
       </c>
       <c r="P73" s="4">
-        <f t="shared" si="10"/>
+        <f>MIN(I73:M73)</f>
         <v>0.40586906671523998</v>
       </c>
       <c r="Q73" s="4">
-        <f t="shared" si="11"/>
+        <f>MIN(E73:H73)</f>
+        <v>-2.14070378510938E-2</v>
+      </c>
+      <c r="R73" s="4">
+        <f>AVERAGE(I73:M73)</f>
         <v>0.43944891095161404</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>25</v>
       </c>
@@ -5268,23 +7995,27 @@
         <v>0.41299670934677102</v>
       </c>
       <c r="N74" s="4">
-        <f t="shared" si="8"/>
+        <f>SUM(E74:H74)</f>
         <v>3.3889478662947059E-3</v>
       </c>
       <c r="O74" s="4">
-        <f t="shared" si="9"/>
+        <f>ABS(E74)+ABS(F74)+ABS(G74)+ABS(H74)</f>
         <v>0.23599086843633729</v>
       </c>
       <c r="P74" s="4">
-        <f t="shared" si="10"/>
+        <f>MIN(I74:M74)</f>
         <v>0.40836417675018299</v>
       </c>
       <c r="Q74" s="4">
-        <f t="shared" si="11"/>
+        <f>MIN(E74:H74)</f>
+        <v>-5.9315817084104598E-2</v>
+      </c>
+      <c r="R74" s="4">
+        <f>AVERAGE(I74:M74)</f>
         <v>0.44032436609268155</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>0</v>
       </c>
@@ -5325,23 +8056,27 @@
         <v>0.449714034795761</v>
       </c>
       <c r="N75" s="4">
-        <f t="shared" si="8"/>
+        <f>SUM(E75:H75)</f>
         <v>-5.4550115129624155E-2</v>
       </c>
       <c r="O75" s="4">
-        <f t="shared" si="9"/>
+        <f>ABS(E75)+ABS(F75)+ABS(G75)+ABS(H75)</f>
         <v>0.38783674910355015</v>
       </c>
       <c r="P75" s="4">
-        <f t="shared" si="10"/>
+        <f>MIN(I75:M75)</f>
         <v>0.38493254780769298</v>
       </c>
       <c r="Q75" s="4">
-        <f t="shared" si="11"/>
+        <f>MIN(E75:H75)</f>
+        <v>-0.14572141267538699</v>
+      </c>
+      <c r="R75" s="4">
+        <f>AVERAGE(I75:M75)</f>
         <v>0.44130857586860622</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>26</v>
       </c>
@@ -5382,23 +8117,27 @@
         <v>0.43222856521606401</v>
       </c>
       <c r="N76" s="4">
-        <f t="shared" si="8"/>
+        <f>SUM(E76:H76)</f>
         <v>-0.27204129725344728</v>
       </c>
       <c r="O76" s="4">
-        <f t="shared" si="9"/>
+        <f>ABS(E76)+ABS(F76)+ABS(G76)+ABS(H76)</f>
         <v>0.27204129725344728</v>
       </c>
       <c r="P76" s="4">
-        <f t="shared" si="10"/>
+        <f>MIN(I76:M76)</f>
         <v>0.38394969701766901</v>
       </c>
       <c r="Q76" s="4">
-        <f t="shared" si="11"/>
+        <f>MIN(E76:H76)</f>
+        <v>-0.136840569893521</v>
+      </c>
+      <c r="R76" s="4">
+        <f>AVERAGE(I76:M76)</f>
         <v>0.4413146555423732</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>25</v>
       </c>
@@ -5439,23 +8178,27 @@
         <v>0.38783317804336498</v>
       </c>
       <c r="N77" s="4">
-        <f t="shared" si="8"/>
+        <f>SUM(E77:H77)</f>
         <v>-8.6059441935643466E-2</v>
       </c>
       <c r="O77" s="4">
-        <f t="shared" si="9"/>
+        <f>ABS(E77)+ABS(F77)+ABS(G77)+ABS(H77)</f>
         <v>8.6059441935643466E-2</v>
       </c>
       <c r="P77" s="4">
-        <f t="shared" si="10"/>
+        <f>MIN(I77:M77)</f>
         <v>0.38783317804336498</v>
       </c>
       <c r="Q77" s="4">
-        <f t="shared" si="11"/>
+        <f>MIN(E77:H77)</f>
+        <v>-4.1258194938761997E-2</v>
+      </c>
+      <c r="R77" s="4">
+        <f>AVERAGE(I77:M77)</f>
         <v>0.4416986584663386</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>0</v>
       </c>
@@ -5496,23 +8239,27 @@
         <v>0.41446313261985701</v>
       </c>
       <c r="N78" s="4">
-        <f t="shared" si="8"/>
+        <f>SUM(E78:H78)</f>
         <v>-0.16509003332679489</v>
       </c>
       <c r="O78" s="4">
-        <f t="shared" si="9"/>
+        <f>ABS(E78)+ABS(F78)+ABS(G78)+ABS(H78)</f>
         <v>0.49837666730072089</v>
       </c>
       <c r="P78" s="4">
-        <f t="shared" si="10"/>
+        <f>MIN(I78:M78)</f>
         <v>0.38607436418533297</v>
       </c>
       <c r="Q78" s="4">
-        <f t="shared" si="11"/>
+        <f>MIN(E78:H78)</f>
+        <v>-0.14572141267538699</v>
+      </c>
+      <c r="R78" s="4">
+        <f>AVERAGE(I78:M78)</f>
         <v>0.44181277751922565</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>26</v>
       </c>
@@ -5553,23 +8300,27 @@
         <v>0.482530057430267</v>
       </c>
       <c r="N79" s="4">
-        <f t="shared" si="8"/>
+        <f>SUM(E79:H79)</f>
         <v>7.9035321921390345E-2</v>
       </c>
       <c r="O79" s="4">
-        <f t="shared" si="9"/>
+        <f>ABS(E79)+ABS(F79)+ABS(G79)+ABS(H79)</f>
         <v>0.25425131205253565</v>
       </c>
       <c r="P79" s="4">
-        <f t="shared" si="10"/>
+        <f>MIN(I79:M79)</f>
         <v>0.41698762774467402</v>
       </c>
       <c r="Q79" s="4">
-        <f t="shared" si="11"/>
+        <f>MIN(E79:H79)</f>
+        <v>-6.9835749167101002E-2</v>
+      </c>
+      <c r="R79" s="4">
+        <f>AVERAGE(I79:M79)</f>
         <v>0.44313018321990916</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>22</v>
       </c>
@@ -5610,23 +8361,27 @@
         <v>0.48726773262023898</v>
       </c>
       <c r="N80" s="4">
-        <f t="shared" si="8"/>
+        <f>SUM(E80:H80)</f>
         <v>0.24056459595811669</v>
       </c>
       <c r="O80" s="4">
-        <f t="shared" si="9"/>
+        <f>ABS(E80)+ABS(F80)+ABS(G80)+ABS(H80)</f>
         <v>0.28337867166030428</v>
       </c>
       <c r="P80" s="4">
-        <f t="shared" si="10"/>
+        <f>MIN(I80:M80)</f>
         <v>0.37329059839248602</v>
       </c>
       <c r="Q80" s="4">
-        <f t="shared" si="11"/>
+        <f>MIN(E80:H80)</f>
+        <v>-2.14070378510938E-2</v>
+      </c>
+      <c r="R80" s="4">
+        <f>AVERAGE(I80:M80)</f>
         <v>0.44329892396926834</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>27</v>
       </c>
@@ -5667,23 +8422,27 @@
         <v>0.432772576808929</v>
       </c>
       <c r="N81" s="4">
-        <f t="shared" si="8"/>
+        <f>SUM(E81:H81)</f>
         <v>3.7710319060789643E-2</v>
       </c>
       <c r="O81" s="4">
-        <f t="shared" si="9"/>
+        <f>ABS(E81)+ABS(F81)+ABS(G81)+ABS(H81)</f>
         <v>0.32429415970096115</v>
       </c>
       <c r="P81" s="4">
-        <f t="shared" si="10"/>
+        <f>MIN(I81:M81)</f>
         <v>0.42849275469779902</v>
       </c>
       <c r="Q81" s="4">
-        <f t="shared" si="11"/>
+        <f>MIN(E81:H81)</f>
+        <v>-0.139781081720146</v>
+      </c>
+      <c r="R81" s="4">
+        <f>AVERAGE(I81:M81)</f>
         <v>0.44457926750183063</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>26</v>
       </c>
@@ -5724,23 +8483,27 @@
         <v>0.43715637922286898</v>
       </c>
       <c r="N82" s="4">
-        <f t="shared" si="8"/>
+        <f>SUM(E82:H82)</f>
         <v>-0.14604345819662659</v>
       </c>
       <c r="O82" s="4">
-        <f t="shared" si="9"/>
+        <f>ABS(E82)+ABS(F82)+ABS(G82)+ABS(H82)</f>
         <v>0.2158203442147904</v>
       </c>
       <c r="P82" s="4">
-        <f t="shared" si="10"/>
+        <f>MIN(I82:M82)</f>
         <v>0.40158706903457603</v>
       </c>
       <c r="Q82" s="4">
-        <f t="shared" si="11"/>
+        <f>MIN(E82:H82)</f>
+        <v>-0.107354676823072</v>
+      </c>
+      <c r="R82" s="4">
+        <f>AVERAGE(I82:M82)</f>
         <v>0.44466363191604563</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>22</v>
       </c>
@@ -5781,23 +8544,27 @@
         <v>0.46310457587242099</v>
       </c>
       <c r="N83" s="4">
-        <f t="shared" si="8"/>
+        <f>SUM(E83:H83)</f>
         <v>-5.4284647855453505E-2</v>
       </c>
       <c r="O83" s="4">
-        <f t="shared" si="9"/>
+        <f>ABS(E83)+ABS(F83)+ABS(G83)+ABS(H83)</f>
         <v>0.2936644641580855</v>
       </c>
       <c r="P83" s="4">
-        <f t="shared" si="10"/>
+        <f>MIN(I83:M83)</f>
         <v>0.42214292287826499</v>
       </c>
       <c r="Q83" s="4">
-        <f t="shared" si="11"/>
+        <f>MIN(E83:H83)</f>
+        <v>-0.136840569893521</v>
+      </c>
+      <c r="R83" s="4">
+        <f>AVERAGE(I83:M83)</f>
         <v>0.44503508806228603</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>0</v>
       </c>
@@ -5838,23 +8605,27 @@
         <v>0.38057798147201499</v>
       </c>
       <c r="N84" s="4">
-        <f t="shared" si="8"/>
+        <f>SUM(E84:H84)</f>
         <v>-5.9397702710270422E-2</v>
       </c>
       <c r="O84" s="4">
-        <f t="shared" si="9"/>
+        <f>ABS(E84)+ABS(F84)+ABS(G84)+ABS(H84)</f>
         <v>0.51356408431052758</v>
       </c>
       <c r="P84" s="4">
-        <f t="shared" si="10"/>
+        <f>MIN(I84:M84)</f>
         <v>0.38057798147201499</v>
       </c>
       <c r="Q84" s="4">
-        <f t="shared" si="11"/>
+        <f>MIN(E84:H84)</f>
+        <v>-0.14572141267538699</v>
+      </c>
+      <c r="R84" s="4">
+        <f>AVERAGE(I84:M84)</f>
         <v>0.44709378480911199</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>16</v>
       </c>
@@ -5895,23 +8666,27 @@
         <v>0.440209120512008</v>
       </c>
       <c r="N85" s="4">
-        <f t="shared" si="8"/>
+        <f>SUM(E85:H85)</f>
         <v>-0.20295942374301568</v>
       </c>
       <c r="O85" s="4">
-        <f t="shared" si="9"/>
+        <f>ABS(E85)+ABS(F85)+ABS(G85)+ABS(H85)</f>
         <v>0.29326889157315233</v>
       </c>
       <c r="P85" s="4">
-        <f t="shared" si="10"/>
+        <f>MIN(I85:M85)</f>
         <v>0.41821822524070701</v>
       </c>
       <c r="Q85" s="4">
-        <f t="shared" si="11"/>
+        <f>MIN(E85:H85)</f>
+        <v>-0.140759480835012</v>
+      </c>
+      <c r="R85" s="4">
+        <f>AVERAGE(I85:M85)</f>
         <v>0.44731934666633533</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>22</v>
       </c>
@@ -5952,23 +8727,27 @@
         <v>0.416818886995315</v>
       </c>
       <c r="N86" s="4">
-        <f t="shared" si="8"/>
+        <f>SUM(E86:H86)</f>
         <v>-0.5024734587909695</v>
       </c>
       <c r="O86" s="4">
-        <f t="shared" si="9"/>
+        <f>ABS(E86)+ABS(F86)+ABS(G86)+ABS(H86)</f>
         <v>0.53084355542524619</v>
       </c>
       <c r="P86" s="4">
-        <f t="shared" si="10"/>
+        <f>MIN(I86:M86)</f>
         <v>0.36833637952804499</v>
       </c>
       <c r="Q86" s="4">
-        <f t="shared" si="11"/>
+        <f>MIN(E86:H86)</f>
+        <v>-0.49525146925701402</v>
+      </c>
+      <c r="R86" s="4">
+        <f>AVERAGE(I86:M86)</f>
         <v>0.44783666729927019</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>27</v>
       </c>
@@ -6009,23 +8788,27 @@
         <v>0.42394933104514998</v>
       </c>
       <c r="N87" s="4">
-        <f t="shared" si="8"/>
+        <f>SUM(E87:H87)</f>
         <v>0.1096214564702057</v>
       </c>
       <c r="O87" s="4">
-        <f t="shared" si="9"/>
+        <f>ABS(E87)+ABS(F87)+ABS(G87)+ABS(H87)</f>
         <v>0.2282530906384149</v>
       </c>
       <c r="P87" s="4">
-        <f t="shared" si="10"/>
+        <f>MIN(I87:M87)</f>
         <v>0.41993454098701399</v>
       </c>
       <c r="Q87" s="4">
-        <f t="shared" si="11"/>
+        <f>MIN(E87:H87)</f>
+        <v>-5.9315817084104598E-2</v>
+      </c>
+      <c r="R87" s="4">
+        <f>AVERAGE(I87:M87)</f>
         <v>0.45070663094520513</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>25</v>
       </c>
@@ -6066,23 +8849,27 @@
         <v>0.46203044056892301</v>
       </c>
       <c r="N88" s="4">
-        <f t="shared" si="8"/>
+        <f>SUM(E88:H88)</f>
         <v>0.16007297861899389</v>
       </c>
       <c r="O88" s="4">
-        <f t="shared" si="9"/>
+        <f>ABS(E88)+ABS(F88)+ABS(G88)+ABS(H88)</f>
         <v>0.36122100266472712</v>
       </c>
       <c r="P88" s="4">
-        <f t="shared" si="10"/>
+        <f>MIN(I88:M88)</f>
         <v>0.43681383132934498</v>
       </c>
       <c r="Q88" s="4">
-        <f t="shared" si="11"/>
+        <f>MIN(E88:H88)</f>
+        <v>-5.9315817084104598E-2</v>
+      </c>
+      <c r="R88" s="4">
+        <f>AVERAGE(I88:M88)</f>
         <v>0.45131358504295305</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>22</v>
       </c>
@@ -6123,23 +8910,27 @@
         <v>0.47772943973541199</v>
       </c>
       <c r="N89" s="4">
-        <f t="shared" si="8"/>
+        <f>SUM(E89:H89)</f>
         <v>0.10021041144023203</v>
       </c>
       <c r="O89" s="4">
-        <f t="shared" si="9"/>
+        <f>ABS(E89)+ABS(F89)+ABS(G89)+ABS(H89)</f>
         <v>0.23548619897886941</v>
       </c>
       <c r="P89" s="4">
-        <f t="shared" si="10"/>
+        <f>MIN(I89:M89)</f>
         <v>0.41901963949203402</v>
       </c>
       <c r="Q89" s="4">
-        <f t="shared" si="11"/>
+        <f>MIN(E89:H89)</f>
+        <v>-4.62308559182249E-2</v>
+      </c>
+      <c r="R89" s="4">
+        <f>AVERAGE(I89:M89)</f>
         <v>0.45416235923767018</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>27</v>
       </c>
@@ -6180,23 +8971,27 @@
         <v>0.39155766367912198</v>
       </c>
       <c r="N90" s="4">
-        <f t="shared" si="8"/>
+        <f>SUM(E90:H90)</f>
         <v>-1.0313947040051265E-3</v>
       </c>
       <c r="O90" s="4">
-        <f t="shared" si="9"/>
+        <f>ABS(E90)+ABS(F90)+ABS(G90)+ABS(H90)</f>
         <v>0.12283695936439493</v>
       </c>
       <c r="P90" s="4">
-        <f t="shared" si="10"/>
+        <f>MIN(I90:M90)</f>
         <v>0.39155766367912198</v>
       </c>
       <c r="Q90" s="4">
-        <f t="shared" si="11"/>
+        <f>MIN(E90:H90)</f>
+        <v>-5.9315817084104598E-2</v>
+      </c>
+      <c r="R90" s="4">
+        <f>AVERAGE(I90:M90)</f>
         <v>0.45455771684646534</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>16</v>
       </c>
@@ -6237,23 +9032,27 @@
         <v>0.43889319896697998</v>
       </c>
       <c r="N91" s="4">
-        <f t="shared" si="8"/>
+        <f>SUM(E91:H91)</f>
         <v>0.16383725549932909</v>
       </c>
       <c r="O91" s="4">
-        <f t="shared" si="9"/>
+        <f>ABS(E91)+ABS(F91)+ABS(G91)+ABS(H91)</f>
         <v>0.44535621716935309</v>
       </c>
       <c r="P91" s="4">
-        <f t="shared" si="10"/>
+        <f>MIN(I91:M91)</f>
         <v>0.40978124737739502</v>
       </c>
       <c r="Q91" s="4">
-        <f t="shared" si="11"/>
+        <f>MIN(E91:H91)</f>
+        <v>-0.140759480835012</v>
+      </c>
+      <c r="R91" s="4">
+        <f>AVERAGE(I91:M91)</f>
         <v>0.45573574900627084</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>27</v>
       </c>
@@ -6294,23 +9093,27 @@
         <v>0.46188646554946899</v>
       </c>
       <c r="N92" s="4">
-        <f t="shared" si="8"/>
+        <f>SUM(E92:H92)</f>
         <v>0.12289141051935853</v>
       </c>
       <c r="O92" s="4">
-        <f t="shared" si="9"/>
+        <f>ABS(E92)+ABS(F92)+ABS(G92)+ABS(H92)</f>
         <v>0.24152304468756775</v>
       </c>
       <c r="P92" s="4">
-        <f t="shared" si="10"/>
+        <f>MIN(I92:M92)</f>
         <v>0.40626844763755798</v>
       </c>
       <c r="Q92" s="4">
-        <f t="shared" si="11"/>
+        <f>MIN(E92:H92)</f>
+        <v>-5.9315817084104598E-2</v>
+      </c>
+      <c r="R92" s="4">
+        <f>AVERAGE(I92:M92)</f>
         <v>0.45696659088134739</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>16</v>
       </c>
@@ -6351,23 +9154,27 @@
         <v>0.48798784613609297</v>
       </c>
       <c r="N93" s="4">
-        <f t="shared" si="8"/>
+        <f>SUM(E93:H93)</f>
         <v>2.166409019602869E-3</v>
       </c>
       <c r="O93" s="4">
-        <f t="shared" si="9"/>
+        <f>ABS(E93)+ABS(F93)+ABS(G93)+ABS(H93)</f>
         <v>8.5733082365358329E-2</v>
       </c>
       <c r="P93" s="4">
-        <f t="shared" si="10"/>
+        <f>MIN(I93:M93)</f>
         <v>0.41116282343864402</v>
       </c>
       <c r="Q93" s="4">
-        <f t="shared" si="11"/>
+        <f>MIN(E93:H93)</f>
+        <v>-2.3438028460627602E-2</v>
+      </c>
+      <c r="R93" s="4">
+        <f>AVERAGE(I93:M93)</f>
         <v>0.45734180808067276</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>0</v>
       </c>
@@ -6408,23 +9215,27 @@
         <v>0.51421242952346802</v>
       </c>
       <c r="N94" s="4">
-        <f t="shared" si="8"/>
+        <f>SUM(E94:H94)</f>
         <v>-9.1896880323957569E-2</v>
       </c>
       <c r="O94" s="4">
-        <f t="shared" si="9"/>
+        <f>ABS(E94)+ABS(F94)+ABS(G94)+ABS(H94)</f>
         <v>0.52010314173511352</v>
       </c>
       <c r="P94" s="4">
-        <f t="shared" si="10"/>
+        <f>MIN(I94:M94)</f>
         <v>0.37083414196968001</v>
       </c>
       <c r="Q94" s="4">
-        <f t="shared" si="11"/>
+        <f>MIN(E94:H94)</f>
+        <v>-0.14572141267538699</v>
+      </c>
+      <c r="R94" s="4">
+        <f>AVERAGE(I94:M94)</f>
         <v>0.45743654966354336</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>27</v>
       </c>
@@ -6465,23 +9276,27 @@
         <v>0.45993366837501498</v>
       </c>
       <c r="N95" s="4">
-        <f t="shared" si="8"/>
+        <f>SUM(E95:H95)</f>
         <v>-1.0221488889723351E-2</v>
       </c>
       <c r="O95" s="4">
-        <f t="shared" si="9"/>
+        <f>ABS(E95)+ABS(F95)+ABS(G95)+ABS(H95)</f>
         <v>0.27831914998018015</v>
       </c>
       <c r="P95" s="4">
-        <f t="shared" si="10"/>
+        <f>MIN(I95:M95)</f>
         <v>0.43423637747764499</v>
       </c>
       <c r="Q95" s="4">
-        <f t="shared" si="11"/>
+        <f>MIN(E95:H95)</f>
+        <v>-0.140759480835012</v>
+      </c>
+      <c r="R95" s="4">
+        <f>AVERAGE(I95:M95)</f>
         <v>0.45856043100357019</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>24</v>
       </c>
@@ -6522,23 +9337,27 @@
         <v>0.398836940526962</v>
       </c>
       <c r="N96" s="4">
-        <f t="shared" si="8"/>
+        <f>SUM(E96:H96)</f>
         <v>3.3818918436911344E-2</v>
       </c>
       <c r="O96" s="4">
-        <f t="shared" si="9"/>
+        <f>ABS(E96)+ABS(F96)+ABS(G96)+ABS(H96)</f>
         <v>0.3943873429742446</v>
       </c>
       <c r="P96" s="4">
-        <f t="shared" si="10"/>
+        <f>MIN(I96:M96)</f>
         <v>0.398836940526962</v>
       </c>
       <c r="Q96" s="4">
-        <f t="shared" si="11"/>
+        <f>MIN(E96:H96)</f>
+        <v>-0.140759480835012</v>
+      </c>
+      <c r="R96" s="4">
+        <f>AVERAGE(I96:M96)</f>
         <v>0.45880672931671096</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>24</v>
       </c>
@@ -6579,23 +9398,27 @@
         <v>0.42428281903266901</v>
       </c>
       <c r="N97" s="4">
-        <f t="shared" si="8"/>
+        <f>SUM(E97:H97)</f>
         <v>0.15366186379684038</v>
       </c>
       <c r="O97" s="4">
-        <f t="shared" si="9"/>
+        <f>ABS(E97)+ABS(F97)+ABS(G97)+ABS(H97)</f>
         <v>0.34432128363247938</v>
       </c>
       <c r="P97" s="4">
-        <f t="shared" si="10"/>
+        <f>MIN(I97:M97)</f>
         <v>0.42428281903266901</v>
       </c>
       <c r="Q97" s="4">
-        <f t="shared" si="11"/>
+        <f>MIN(E97:H97)</f>
+        <v>-5.9315817084104598E-2</v>
+      </c>
+      <c r="R97" s="4">
+        <f>AVERAGE(I97:M97)</f>
         <v>0.46472534537315341</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>27</v>
       </c>
@@ -6636,23 +9459,27 @@
         <v>0.44889783859252902</v>
       </c>
       <c r="N98" s="4">
-        <f t="shared" ref="N98:N106" si="12">SUM(E98:H98)</f>
+        <f>SUM(E98:H98)</f>
         <v>2.0173066668267525E-2</v>
       </c>
       <c r="O98" s="4">
-        <f t="shared" ref="O98:O106" si="13">ABS(E98)+ABS(F98)+ABS(G98)+ABS(H98)</f>
+        <f>ABS(E98)+ABS(F98)+ABS(G98)+ABS(H98)</f>
         <v>7.832166413772107E-2</v>
       </c>
       <c r="P98" s="4">
-        <f t="shared" ref="P98:P106" si="14">MIN(I98:M98)</f>
+        <f>MIN(I98:M98)</f>
         <v>0.38368150591850197</v>
       </c>
       <c r="Q98" s="4">
-        <f t="shared" ref="Q98:Q106" si="15">AVERAGE(I98:M98)</f>
+        <f>MIN(E98:H98)</f>
+        <v>-2.3438028460627602E-2</v>
+      </c>
+      <c r="R98" s="4">
+        <f>AVERAGE(I98:M98)</f>
         <v>0.46828265786170897</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>25</v>
       </c>
@@ -6693,23 +9520,27 @@
         <v>0.389545708894729</v>
       </c>
       <c r="N99" s="4">
-        <f t="shared" si="12"/>
+        <f>SUM(E99:H99)</f>
         <v>-0.20672370062335088</v>
       </c>
       <c r="O99" s="4">
-        <f t="shared" si="13"/>
+        <f>ABS(E99)+ABS(F99)+ABS(G99)+ABS(H99)</f>
         <v>0.20913367706852631</v>
       </c>
       <c r="P99" s="4">
-        <f t="shared" si="14"/>
+        <f>MIN(I99:M99)</f>
         <v>0.389545708894729</v>
       </c>
       <c r="Q99" s="4">
-        <f t="shared" si="15"/>
+        <f>MIN(E99:H99)</f>
+        <v>-0.107354676823072</v>
+      </c>
+      <c r="R99" s="4">
+        <f>AVERAGE(I99:M99)</f>
         <v>0.46836296319961496</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>24</v>
       </c>
@@ -6750,23 +9581,27 @@
         <v>0.468768119812011</v>
       </c>
       <c r="N100" s="4">
-        <f t="shared" si="12"/>
+        <f>SUM(E100:H100)</f>
         <v>-0.22179924136436407</v>
       </c>
       <c r="O100" s="4">
-        <f t="shared" si="13"/>
+        <f>ABS(E100)+ABS(F100)+ABS(G100)+ABS(H100)</f>
         <v>0.22420921780953953</v>
       </c>
       <c r="P100" s="4">
-        <f t="shared" si="14"/>
+        <f>MIN(I100:M100)</f>
         <v>0.40646049380302401</v>
       </c>
       <c r="Q100" s="4">
-        <f t="shared" si="15"/>
+        <f>MIN(E100:H100)</f>
+        <v>-0.140759480835012</v>
+      </c>
+      <c r="R100" s="4">
+        <f>AVERAGE(I100:M100)</f>
         <v>0.47034347653388914</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>27</v>
       </c>
@@ -6807,23 +9642,27 @@
         <v>0.47350066900253202</v>
       </c>
       <c r="N101" s="4">
-        <f t="shared" si="12"/>
+        <f>SUM(E101:H101)</f>
         <v>-0.21571886928347211</v>
       </c>
       <c r="O101" s="4">
-        <f t="shared" si="13"/>
+        <f>ABS(E101)+ABS(F101)+ABS(G101)+ABS(H101)</f>
         <v>0.33752443394386189</v>
       </c>
       <c r="P101" s="4">
-        <f t="shared" si="14"/>
+        <f>MIN(I101:M101)</f>
         <v>0.37811031937599099</v>
       </c>
       <c r="Q101" s="4">
-        <f t="shared" si="15"/>
+        <f>MIN(E101:H101)</f>
+        <v>-0.139781081720146</v>
+      </c>
+      <c r="R101" s="4">
+        <f>AVERAGE(I101:M101)</f>
         <v>0.47049891948699879</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>26</v>
       </c>
@@ -6864,23 +9703,27 @@
         <v>0.51005375385284402</v>
       </c>
       <c r="N102" s="4">
-        <f t="shared" si="12"/>
+        <f>SUM(E102:H102)</f>
         <v>-0.1547078841154863</v>
       </c>
       <c r="O102" s="4">
-        <f t="shared" si="13"/>
+        <f>ABS(E102)+ABS(F102)+ABS(G102)+ABS(H102)</f>
         <v>0.24779560398805128</v>
       </c>
       <c r="P102" s="4">
-        <f t="shared" si="14"/>
+        <f>MIN(I102:M102)</f>
         <v>0.40429642796516402</v>
       </c>
       <c r="Q102" s="4">
-        <f t="shared" si="15"/>
+        <f>MIN(E102:H102)</f>
+        <v>-0.140759480835012</v>
+      </c>
+      <c r="R102" s="4">
+        <f>AVERAGE(I102:M102)</f>
         <v>0.47108370065689054</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>27</v>
       </c>
@@ -6921,23 +9764,27 @@
         <v>0.49253353476524298</v>
       </c>
       <c r="N103" s="4">
-        <f t="shared" si="12"/>
+        <f>SUM(E103:H103)</f>
         <v>-0.11221551012396126</v>
       </c>
       <c r="O103" s="4">
-        <f t="shared" si="13"/>
+        <f>ABS(E103)+ABS(F103)+ABS(G103)+ABS(H103)</f>
         <v>0.16930345154606272</v>
       </c>
       <c r="P103" s="4">
-        <f t="shared" si="14"/>
+        <f>MIN(I103:M103)</f>
         <v>0.41233810782432501</v>
       </c>
       <c r="Q103" s="4">
-        <f t="shared" si="15"/>
+        <f>MIN(E103:H103)</f>
+        <v>-0.140759480835012</v>
+      </c>
+      <c r="R103" s="4">
+        <f>AVERAGE(I103:M103)</f>
         <v>0.47175139188766418</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>24</v>
       </c>
@@ -6978,23 +9825,27 @@
         <v>0.49304455518722501</v>
       </c>
       <c r="N104" s="4">
-        <f t="shared" si="12"/>
+        <f>SUM(E104:H104)</f>
         <v>-0.24148522367174918</v>
       </c>
       <c r="O104" s="4">
-        <f t="shared" si="13"/>
+        <f>ABS(E104)+ABS(F104)+ABS(G104)+ABS(H104)</f>
         <v>0.24389520011692464</v>
       </c>
       <c r="P104" s="4">
-        <f t="shared" si="14"/>
+        <f>MIN(I104:M104)</f>
         <v>0.413931995630264</v>
       </c>
       <c r="Q104" s="4">
-        <f t="shared" si="15"/>
+        <f>MIN(E104:H104)</f>
+        <v>-0.136840569893521</v>
+      </c>
+      <c r="R104" s="4">
+        <f>AVERAGE(I104:M104)</f>
         <v>0.47259858250617937</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>27</v>
       </c>
@@ -7035,23 +9886,27 @@
         <v>0.48915681242942799</v>
       </c>
       <c r="N105" s="4">
-        <f t="shared" si="12"/>
+        <f>SUM(E105:H105)</f>
         <v>-8.5492968778916267E-2</v>
       </c>
       <c r="O105" s="4">
-        <f t="shared" si="13"/>
+        <f>ABS(E105)+ABS(F105)+ABS(G105)+ABS(H105)</f>
         <v>0.20729853343930607</v>
       </c>
       <c r="P105" s="4">
-        <f t="shared" si="14"/>
+        <f>MIN(I105:M105)</f>
         <v>0.446261376142501</v>
       </c>
       <c r="Q105" s="4">
-        <f t="shared" si="15"/>
+        <f>MIN(E105:H105)</f>
+        <v>-0.140759480835012</v>
+      </c>
+      <c r="R105" s="4">
+        <f>AVERAGE(I105:M105)</f>
         <v>0.48278148770332285</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>24</v>
       </c>
@@ -7092,30 +9947,34 @@
         <v>0.41099661588668801</v>
       </c>
       <c r="N106" s="4">
-        <f t="shared" si="12"/>
+        <f>SUM(E106:H106)</f>
         <v>-0.11197884055085108</v>
       </c>
       <c r="O106" s="4">
-        <f t="shared" si="13"/>
+        <f>ABS(E106)+ABS(F106)+ABS(G106)+ABS(H106)</f>
         <v>0.11197884055085108</v>
       </c>
       <c r="P106" s="4">
-        <f t="shared" si="14"/>
+        <f>MIN(I106:M106)</f>
         <v>0.36364778876304599</v>
       </c>
       <c r="Q106" s="4">
-        <f t="shared" si="15"/>
+        <f>MIN(E106:H106)</f>
+        <v>-6.9835749167101002E-2</v>
+      </c>
+      <c r="R106" s="4">
+        <f>AVERAGE(I106:M106)</f>
         <v>0.55650966763496368</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q106" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q106">
-      <sortCondition ref="Q1:Q106"/>
+  <autoFilter ref="A1:R106" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R106">
+      <sortCondition ref="R1:R106"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="P2:P106">
+  <conditionalFormatting sqref="P2:Q106">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -7125,7 +9984,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q106">
+  <conditionalFormatting sqref="R2:R106">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -7157,8 +10016,6 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="N2:Q106" formulaRange="1"/>
-  </ignoredErrors>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>